--- a/finetuning/it_datasets/qa_dataset/qa_it_thala_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_thala_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA51"/>
+  <dimension ref="A1:AB51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,12 +672,54 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a delightful Salon de the experience, Sweet Cafe (qhw@ lrlw) is the perfect choice. Located at P17, Thala, this top-rated destination offers a cozy and inviting ambiance. With a rating of 5.0, it's a favorite among locals and visitors alike. Open 24 hours a day, Sweet Cafe (qhw@ lrlw) is always ready to cater to your cravings. To get there, use the GPS coordinates (21.552119, 72.005783). For more information or to make a reservation, call 20 261 962.</t>
+          <t>Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated "Salon de the" experience with a cozy ambiance, accessible 24 hours a day in Thala?</t>
+          <t>Day Plan:
+Morning: Exploring Thala city center and visiting Dar Thala (35.57244, 8.67031) for a tranquil retreat.
+Mid-Morning: Tasting local delicacies at Restaurant miam's food (21.552119, 72.005783), known for its exceptional culinary offerings.
+Midday: Shopping for souvenirs and local products at Thala Market.
+Afternoon: Enjoying scenic views at Chicken house (38.91539, -77.020328) while savoring its delicious pizzas.
+Evening: Relaxing with a revitalizing spa treatment at LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF (36.95742, 8.75096) to rejuvenate for the night ahead.
+Night: Experiencing the vibrant nightlife, music, and ambiance at Queen "cafe-resto" and indulging in local flavors.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+Queen "cafe-resto" is a local cafe located in Thala, Gujarat. It has an average rating of 5.0 with 1 review. The cafe operates from 8:00 am to 12:00 am, every day of the week.
+Restaurant miam's food is a highly rated (5.0/5 from 2 reviews) restaurant located in Thala, Gujarat, India. Its exact location is 21.552119, 72.005783. The restaurant offers a variety of dishes, but its specific offerings are not available in the provided information.
+The Royal Kenz Hotel Thalasso &amp; Spa is a luxurious hotel located in Hammam Sousse, Tunisia. It offers spacious rooms and suites with a blend of traditional and modern décor. Guests can enjoy three swimming pools, including an indoor pool, a spa, and a mini-golf course. The hotel is situated near the beach and offers stunning views of the Mediterranean Sea. With a rating of 4.2 out of 5, it is a popular destination for both leisure and business travelers
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end hotel complex with multiple restaurants, a jazz bar, a golf course, and a spa. It is located in a prime touristic Zone with coordinates (36.95742, 8.75096). The 5-star complex features breathtaking views, halal-friendly amenities, and a luxurious ambiance that has received high praise from its guests.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+Lti El Ksar Resort &amp; Thalasso is a hotel located in Sousse, Tunisia. It has 14 reviews and is rated 4.3. The hotel offers thalasso therapy and is located near the beach. It is also close to several restaurants and shops.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -774,12 +821,54 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in **thala** and looking for a place to grab a bite, check out **Queen "cafe-resto"** located at **HMV6+FPV** . This top-rated destination is perfect for **Cafe** lovers. With a rating of **5.0**, it's a must-visit spot. It's open during these hours: **08:00-00:00**. To get there, use these GPS coordinates: **21.552119, 72.005783**. For more details, visit their website at **https://www.google.com/maps/place/Queen+%22caf%C3%A9-resto%22/data=!4m7!3m6!1s0x12f9633ae5de1413:0x9e475119a82e0100!8m2!3d35.5937497!4d8.6617907!16s%2Fg%2F11smz8k1yr!19sChIJExTe5Tpj-RIRAAEuqBlRR54?authuser=0&amp;hl=fr&amp;rclk=1** or call them at **Not available**.</t>
+          <t>Queen "cafe-resto" is a 5-star rated cafe located in Thala. It offers a cozy atmosphere and a wide selection of coffee and tea beverages. The cafe is open from 8 AM to midnight, making it a great place to relax and enjoy a cup of coffee or tea. It is conveniently located at the coordinates (21.552119, 72.005783).</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>What is the highly-rated "Cafe" destination with a 5.0 score in Thala, as per the provided description?</t>
+          <t>Day Plan:
+Morning: Explore Thala by visiting Sweet Cafe, for a highly-rated tea experience.
+Mid-Morning: Visit the Djerba Plaza Thalasso &amp; Spa, a 4-star hotel with stunning facilities, for a relaxing experience.
+Midday: Try local cuisine at Restaurant miam, for a delicious dining experience.
+Afternoon: Enjoy outdoor activities like hiking or biking at Chicken house, a pizzeria with beautiful surroundings.
+Evening: Experience cultural immersion at Dar Thala, a hotel with a great ambiance and positive reviews.
+Night: Participate in a guided tour of the TOTAL Thala gas station, for a unique and informative experience.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+qhw@ lshTr is a highly-rated cafe located in Thala, Gujarat, India. The cafe is praised for its cozy ambiance and inviting atmosphere. This cafe offers a fine selection of beverages and light refreshments. It is a perfect spot to relax and have conversations. The staff is hospitable and always ready to assist. The cafe is open from 8:00 am to 8:00 pm, making it a convenient option for a morning coffee or an evening tea.
+Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.
+Djerba Plaza Thalasso &amp; Spa is a 4-star hotel located in Djerba Midun, Tunisia (33.83034, 11.00694). It features 2424 rooms and offers 8 restaurants and bars, 3 swimming pools, a spa, and sport facilities, making it a perfect spot to enjoy the sun and the sea while pampering yourself with a relaxing stay.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a luxury 5-star resort located in Tabarka, Tunisia. It features stunning views, a private beach, and a wide range of amenities.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti El Ksar Resort &amp; Thalasso is a resort located in Sousse, Tunisia. It is a popular destination for tourists seeking a relaxing and rejuvenating vacation. The resort offers a variety of amenities, including a thalasso spa, swimming pools, and restaurants. It is also conveniently located near the beach and other attractions.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -885,14 +974,54 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in thala, check out mqh~ lHj mnwr Cafe Elhaj Mnawer at HMG9+4R7 mqh~ lHj mnwr Cafe Elhaj Mnawer, P17.
-This top-rated Cafe destination has a rating of 5.0 and is open 24 hours a day.
-For more details, visit their website.</t>
+          <t>mqh~ lHj mnwr Cafe Elhaj Mnawer is a popular cafe located in Thala, Tunisia, offering a cozy and welcoming atmosphere for locals and tourists alike. Situated at coordinates (35.5857757, 8.6046366), it is easily accessible and conveniently located. The cafe serves up delicious food and beverages, catering to a wide range of tastes and preferences. Its 24-hour营业模式 makes it a great spot to relax and enjoy a cup of coffee or tea any time of the day or night.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>What highly-rated 24-hour Cafe is a must-visit in Thala?</t>
+          <t>Day Plan:
+Morning: Explore the enchanting Dar Thala for a peaceful and relaxing getaway.
+Mid-Morning: Indulge in the delectable cuisine at Mourade Mlawi, a highly-rated restaurant in Thala.
+Midday: Visit the Sweet Cafe, a tea room in Thala, for a refreshing break.
+Afternoon: Enjoy an adventurous guided tour of the ancient ruins in Thala.
+Evening: Pamper yourself with a rejuvenating experience at a traditional hammam or spa.
+Night: Relish the local Tunisian cuisine at qhw@ smyr, a cozy cafe offering a variety of dishes and drinks.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+qhw@ smyr is a cafe located in Thala, Gujarat, India. It offers a variety of coffee and tea drinks, as well as snacks and pastries. The cafe is open from 4:00 AM to midnight, and is closed on Sundays. qhw@ smyr is rated 4.5 stars on Google, and has received positive reviews for its friendly staff and delicious coffee. The cafe is located at coordinates 21.552119, 72.005783.
+Mourade Mlawi is a highly-rated restaurant in Thala known for its delectable cuisine. Located at the coordinates (21.552119, 72.005783), it offers a warm and inviting ambiance for diners. With a 5.0 rating based on two reviews, it has garnered a strong reputation among locals and visitors alike.
+Djerba Plaza Thalasso &amp; Spa is a 4-star hotel located in Djerba Midun, Tunisia (33.83034, 11.00694). It features 2424 rooms and offers 8 restaurants and bars, 3 swimming pools, a spa, and sport facilities, making it a perfect spot to enjoy the sun and the sea while pampering yourself with a relaxing stay.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end hotel complex with multiple restaurants, a jazz bar, a golf course, and a spa. It is located in a prime touristic Zone with coordinates (36.95742, 8.75096). The 5-star complex features breathtaking views, halal-friendly amenities, and a luxurious ambiance that has received high praise from its guests.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+The lti Thalassa Sousse is a train station located in Sousse, Tunisia. It is situated at the coordinates (35.8605033, 10.6135856) and offers train services to various destinations.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -994,14 +1123,54 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a great Cafe, check out Queen "cafe-resto" located at HMV6+FPV Queen "cafe-resto". 
-This top-rated destination offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 21.552119, 72.005783.</t>
+          <t>Queen "cafe-resto" is a cafe located in Thala, India. It offers a wide range of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe has a cozy atmosphere and is a great place to relax and enjoy a bite to eat. It is located at (21.552119, 72.005783).</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where in Thala can you find a highly-rated cafe called Queen "cafe-resto" that is open until midnight?</t>
+          <t>Day Plan:
+Morning: Explore the scenic landscapes and historical sites of Thala, including the ancient ruins and natural landmarks.
+Mid-Morning: Indulge in the local cuisine at Mourade Mlawi, known for its delectable dishes and warm ambiance.
+Midday: Visit LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF, a luxurious 5-star complex offering breathtaking views and a range of amenities.
+Afternoon: Enjoy relaxing treatments and rejuvenate at LA CIGALE's renowned Thalasso &amp; Spa, immersing yourself in a sanctuary of well-being.
+Evening: Experience the vibrant atmosphere of Sweet Cafe, a well-rated tea salon offering 24/7 service and delectable tea selections.
+Night: Take a leisurely stroll through the picturesque streets of Thala, capturing the charm and serenity of this captivating town.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+Cafe el Homri is a cafe located in Thala, Gujarat, India. It is open 24 hours a day and offers a variety of food and drinks. The cafe is rated 5.0 out of 5 stars on Google and has received 1 review.
+Mourade Mlawi is a highly-rated restaurant in Thala known for its delectable cuisine. Located at the coordinates (21.552119, 72.005783), it offers a warm and inviting ambiance for diners. With a 5.0 rating based on two reviews, it has garnered a strong reputation among locals and visitors alike.
+Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel is a 4.4 stars waterfront hotel in Port El Kantaoui, Tunisia. It offers luxury rooms and suites, all of which feature a balcony. The hotel has a spa, two swimming pools, and a restaurant. It's located in a touristic area with a golf and a beach nearby.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end hotel complex with multiple restaurants, a jazz bar, a golf course, and a spa. It is located in a prime touristic Zone with coordinates (36.95742, 8.75096). The 5-star complex features breathtaking views, halal-friendly amenities, and a luxurious ambiance that has received high praise from its guests.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti El Ksar Resort &amp; Thalasso is a resort located in Sousse, Tunisia. It is a popular destination for tourists seeking a relaxing and rejuvenating vacation. The resort offers a variety of amenities, including a thalasso spa, swimming pools, and restaurants. It is also conveniently located near the beach and other attractions.
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1276,54 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a top-rated Salon de the, Sweet Cafe (qhw@ lrlw) is the place to be. Located at Sweet Cafe (qhw@ lrlw), P17, Thala, this destination is perfect for those who love Salon de the. With a rating of 5.0 and 12 reviews, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 21.552119, 72.005783. For more details, visit their website at https://www.google.com/maps/place/Sweet+Caf%C3%A9+%28%D9%82%D9%87%D9%88%D8%A9+%D8%A7%D9%84%D8%B1%D8%A7%D9%84%D9%88%29%E2%80%AD/data=!4m7!3m6!1s0x12f9630762de3fcf:0xf60b5ebc98d38314!8m2!3d35.5647658!4d8.6748507!16s%2Fg%2F11ght9btry!19sChIJzz_eYgdj-RIRFIPTmLxeC_Y?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 261 962.</t>
+          <t>Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Salon de the with a 5.0 rating and conveniently open 24/7 in Thala?</t>
+          <t>Day Plan:
+Morning: Explore the well-rated Sweet Cafe, known for its delicious tea and 24/7 service.
+Mid-Morning: Visit Cafe Elhaj Mnawer for a taste of local cuisine and its famous friendly service.
+Midday: Delight in a highly-rated dining experience at Restaurant miam's food.
+Afternoon: Relax and rejuvenate at Ulysse Djerba Thalasso &amp; Spa, indulging in its luxurious amenities and breathtaking views.
+Evening: Experience the upscale ambiance and exquisite dining options at LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF.
+Night: Get a peaceful night's rest at Dar Thala, surrounded by tranquil ambiance and top-rated hospitality.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+mqh~ lHj mnwr Cafe Elhaj Mnawer is a Cafe located in Thala, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. It has a rating of 5 stars on Google Reviews and is known for its friendly staff and delicious food. The cafe is located at HMG9+4R7 mqh~ lHj mnwr Cafe Elhaj Mnawer, P17, Thala 1210, Tunisia. Its coordinates are (35.5857757, 8.6046366).
+Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.
+Nestled on the idyllic shores of Sidi Mehrez Beach, Ulysse Djerba Thalasso &amp; Spa is a luxurious 4.1-rated hotel. Boasting a prime location in Mezraya, it offers a range of indulgent amenities including fine dining options, a rejuvenating spa, tennis courts, and sparkling indoor and outdoor pools. With a host of rave reviews and ratings averaging 4.1, this upscale establishment promises an unforgettable stay.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end hotel complex with multiple restaurants, a jazz bar, a golf course, and a spa. It is located in a prime touristic Zone with coordinates (36.95742, 8.75096). The 5-star complex features breathtaking views, halal-friendly amenities, and a luxurious ambiance that has received high praise from its guests.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti Thalassa Sousse is a train station with a rating of 3.3 found in the city of Sousse, Tunisia. It's located at the following coordinates: (35.8605033, 10.6135856). This place offers a variety of amenities and services to its customers.
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1214,12 +1425,54 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a great meal, check out Restaurant Faouzi Merguez &amp; Lablebi located at Restaurant Faouzi Merguez &amp; Lablebi, P17, Thala. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-16:00. To get there, use these GPS coordinates: 34.0586402, -5.0208467. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Faouzi+Merguez+%26+Lablebi/data=!4m7!3m6!1s0x12f962c5547ae0bb:0x393f79d55da4b42f!8m2!3d35.5705651!4d8.6713272!16s%2Fg%2F11g6lx9t0v!19sChIJu-B6VMVi-RIRL7SkXdV5Pzk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant Faouzi Merguez &amp; Lablebi is located in Thala, Tunisia, at coordinates (34.0586402, -5.0208467). The restaurant offers a variety of dishes, including merguez, lablebi, and other traditional Tunisian cuisine. It is open from 05:00-16:00 and has a rating of 4.0 on Google Maps.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where in Thala can you find a top-rated restaurant that caters specifically to restaurant lovers and offers a variety of restaurant options?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Dar Thala, known for its tranquility and panoramic views.
+Mid-Morning: Savor local cuisine at Restaurant miam's food, known for its delectable dishes.
+Midday: Visit Queen "cafe-resto" for a cozy atmosphere and a refreshing cup of coffee or tea.
+Afternoon: Engage in outdoor activities like biking or hiking in the scenic surroundings of Thala.
+Evening: Relax with a rejuvenating thalasso therapy session at Lti El Ksar Resort &amp; Thalasso, known for its therapeutic benefits.
+Night: Enjoy a delightful dinner at Sweet Cafe, a highly rated tea room with a charming ambiance.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+Queen "cafe-resto" is a 5-star rated cafe located in Thala. It offers a cozy atmosphere and a wide selection of coffee and tea beverages. The cafe is open from 8 AM to midnight, making it a great place to relax and enjoy a cup of coffee or tea. It is conveniently located at the coordinates (21.552119, 72.005783).
+Restaurant miam's food is a highly rated (5.0/5 from 2 reviews) restaurant located in Thala, Gujarat, India. Its exact location is 21.552119, 72.005783. The restaurant offers a variety of dishes, but its specific offerings are not available in the provided information.
+The Hasdrubal Thalassa &amp; Spa Hotel in Port El Kantaoui, Tunisia, provides an upscale beachfront experience. With 2154 contemporary rooms and suites featuring private balconies, the hotel offers a rejuvenating spa and two refreshing swimming pools for guests to indulge in. Conveniently located at Hasdrubal Thalassa &amp; Spa, Zone Touristique Port El Kantaoui, Port El Kantaoui 4089, the hotel boasts a 4.4-star rating and has received positive reviews from 265 satisfied guests.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a luxury 5-star resort located in Tabarka, Tunisia. It features stunning views, a private beach, and a wide range of amenities.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+Lti El Ksar Resort &amp; Thalasso is a hotel located in Sousse, Tunisia. It has 14 reviews and is rated 4.3. The hotel offers thalasso therapy and is located near the beach. It is also close to several restaurants and shops.
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1325,14 +1578,55 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in Thala and looking for a great place to relax, check out mqh~ lHj mnwr Cafe Elhaj Mnawer located at HMG9+4R7 mqh~ lHj mnwr Cafe Elhaj Mnawer, P17, Thala 1210. 
-This top-rated cafe is perfect for coffee lovers and offers a range of drinks to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 35.5857757, 8.6046366. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%AD%D8%A7%D8%AC+%D9%85%D9%86%D9%88%D8%B1+Caf%C3%A9+Elhaj+Mnawer%E2%80%AD/data=!4m7!3m6!1s0x12f962cf37af13d3:0x881c085630b88f2d!8m2!3d35.5752882!4d8.6695389!16s%2Fg%2F11cs9mty6q!19sChIJ0xOvN89i-RIRLY-4MFYIHIg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 219 821.</t>
+          <t>mqh~ lHj mnwr Cafe Elhaj Mnawer is a Cafe located in Thala, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. It has a rating of 5 stars on Google Reviews and is known for its friendly staff and delicious food. The cafe is located at HMG9+4R7 mqh~ lHj mnwr Cafe Elhaj Mnawer, P17, Thala 1210, Tunisia. Its coordinates are (35.5857757, 8.6046366).</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find Cafe Elhaj Mnawer, a top-rated spot with a 5.0 rating, open 24/7, and perfect for coffee lovers in Thala?</t>
+          <t>Day Plan:
+Morning: Start the day by visiting La nouvelle café for a cup of coffee and a light breakfast.
+Mid-Morning: Explore the scenic Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel and enjoy the picturesque views.
+Midday: Indulge in the local cuisine at Restaurant Faouzi Merguez &amp; Lablebi, known for its authentic Tunisian dishes.
+Afternoon: Relax and rejuvenate with a spa treatment or swim at the Dar Thala.
+Evening: Take a guided tour of the historic Chicken house to learn about its local significance.
+Night: Enjoy a romantic candlelit dinner at Radisson Blu Palace Resort &amp; Thalasso, Djerba, with stunning panoramic sea views.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+La nouvelle café is a highly rated café located in Thala, Gujarat, India. It offers a cozy and inviting atmosphere, perfect for enjoying a cup of coffee, tea, or a light meal. With its convenient location and ample parking, La nouvelle café is easily accessible and a great place to relax and socialize.
+Restaurant Faouzi Merguez &amp; Lablebi is a restaurant located in thala, Tunisia. It offers a range of dishes, including merguez and lablebi. The restaurant is open from 05:00 to 16:00 and is located at HMCC+6GG P17. The restaurant has a rating of 4.0 and has received 8 reviews.
+The Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel is a chic hotel located in thala that offers contemporary rooms and suites with balconies, a spa, and two swimming pools. With a 4.4 rating based on 265 reviews, the hotel is known for its comfortable and calming atmosphere, friendly staff, and proximity to the beach. Guests also appreciate the hotel's thalasso treatments, golf course, and beautiful gardens.
+**Radisson Blu Palace Resort &amp; Thalasso, Djerba**
+Nestled on the pristine shores of Djerba, Radisson Blu Palace Resort &amp; Thalasso offers an elegant retreat with panoramic sea views. Its luxurious rooms and suites feature bright and airy interiors, while amenities include a private beach, a spa with thalassotherapy treatments, and a variety of dining options. Located on the island of Djerba, the resort boasts a convenient location just a short drive from Houmt Souk and within easy reach of numerous attractions and activities.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+**lti Thalassa Sousse** is a train station located at Av. 14 Janvier, Sousse, Tunisia. It has a rating of 3.3 out of 5 based on 12 reviews. The coordinates of the station are (35.8605033, 10.6135856). The phone number is 73 275 355 and it is owned by lti Thalassa Sousse (proprietaire).
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1430,12 +1724,54 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a top-rated cafe, check out qhw@ lshTr at HM8C+CJ2. This cafe is perfect for cafe lovers and is open from 08:00-20:00. To get there, use these GPS coordinates: 21.552119, 72.005783. For more details, visit their website at https://www.google.com/maps/place/%D9%82%D9%87%D9%88%D8%A9+%D8%A7%D9%84%D8%B4%D8%B7%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x12f962da0c5510f7:0xccff30ea45b18e93!8m2!3d35.5660015!4d8.67153!16s%2Fg%2F11csb0slpn!19sChIJ9xBVDNpi-RIRk46xReow_8w?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>qhw@ lshTr is a highly-rated cafe located in Thala, Gujarat, India. The cafe is praised for its cozy ambiance and inviting atmosphere. This cafe offers a fine selection of beverages and light refreshments. It is a perfect spot to relax and have conversations. The staff is hospitable and always ready to assist. The cafe is open from 8:00 am to 8:00 pm, making it a convenient option for a morning coffee or an evening tea.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>What is the top-rated cafe in Thala that offers extended hours from 8 AM to 8 PM and can be easily found using the GPS coordinates provided?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Sweet Cafe, renowned for its delightful tea and charming ambiance, located in the heart of Thala.
+Mid-Morning: Indulge in the delectable local cuisine at Restaurant miam, known for its authentic flavors and warm hospitality.
+Midday: Visit the iconic Dar Thala, a tranquil haven offering panoramic views of the surrounding landscape.
+Afternoon: Embark on a rejuvenating experience at lti El Ksar Resort &amp; Thalasso, where you can pamper yourself with revitalizing treatments and embrace the calming atmosphere.
+Evening: Take a leisurely stroll through the bustling streets of Thala, exploring hidden gems and discovering unique souvenirs.
+Night: Conclude your day with a relaxing stay at TOTAL Thala (1 station), a renowned gas station offering exceptional services and a comfortable environment to unwind.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+qhw@ lshTr is a highly-rated cafe located in Thala, Gujarat, India. The cafe is praised for its cozy ambiance and inviting atmosphere. This cafe offers a fine selection of beverages and light refreshments. It is a perfect spot to relax and have conversations. The staff is hospitable and always ready to assist. The cafe is open from 8:00 am to 8:00 pm, making it a convenient option for a morning coffee or an evening tea.
+Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.
+The Royal Kenz Hotel Thalasso &amp; Spa is a luxurious hotel located in Hammam Sousse, Tunisia. It offers spacious rooms and suites with a blend of traditional and modern décor. Guests can enjoy three swimming pools, including an indoor pool, a spa, and a mini-golf course. The hotel is situated near the beach and offers stunning views of the Mediterranean Sea. With a rating of 4.2 out of 5, it is a popular destination for both leisure and business travelers
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end balneotherapy complex located in Tabarka, Tunisia. It has multiple restaurants including a jazz bar, a golf course, and a spa. It is located at the following coordinates: (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti El Ksar Resort &amp; Thalasso is a 4.3-rated resort located in Sousse, Tunisia. It offers Thalasso treatments and features 14 reviews from guests. It is easily accessible via its central location and has a variety of amenities, including a restaurant, bar, and garden. The resort is situated near the beach, making it a great choice for a relaxing getaway.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1537,12 +1873,54 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out lqhw@ lHmr located at HMFC+C3R lqhw@ lHmr. This top-rated destination is perfect for Cafe lovers. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 21.552119, 72.005783.</t>
+          <t>lqhw@ lHmr is a Cafe located in thala. It's a 4.6 rated place having 5 reviews with categories like Cafe. It is open during 05:00-23:00 hours.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where in Thala can you find a highly-rated destination perfect for Cafe lovers?</t>
+          <t>Day Plan:
+Morning: Explore the historic charm of Dar Thala, a hotel with a perfect rating and one review.
+Mid-Morning: Indulge in the local flavors at Queen "cafe-resto," which has a cozy atmosphere and a wide selection of food and drinks.
+Midday: Visit the Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel and enjoy its beautiful gardens and comfortable ambiance.
+Afternoon: Engage in outdoor activities like hiking or biking at the nearby park or outdoor location.
+Evening: Experience the culinary delights of Restaurant Faouzi Merguez &amp; Lablebi, known for its traditional Tunisian cuisine.
+Night: Relax with a rejuvenating spa treatment at LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF and admire its stunning views.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+Queen "cafe-resto" is a cafe located in Thala, India. It offers a wide range of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe has a cozy atmosphere and is a great place to relax and enjoy a bite to eat. It is located at (21.552119, 72.005783).
+Restaurant Faouzi Merguez &amp; Lablebi is located in Thala, Tunisia, at coordinates (34.0586402, -5.0208467). The restaurant offers a variety of dishes, including merguez, lablebi, and other traditional Tunisian cuisine. It is open from 05:00-16:00 and has a rating of 4.0 on Google Maps.
+The Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel is a chic hotel located in thala that offers contemporary rooms and suites with balconies, a spa, and two swimming pools. With a 4.4 rating based on 265 reviews, the hotel is known for its comfortable and calming atmosphere, friendly staff, and proximity to the beach. Guests also appreciate the hotel's thalasso treatments, golf course, and beautiful gardens.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a luxury 5-star resort located in Tabarka, Tunisia. It features stunning views, a private beach, and a wide range of amenities.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+The lti Thalassa Sousse is a train station located in Sousse, Tunisia. It is situated at the coordinates (35.8605033, 10.6135856) and offers train services to various destinations.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1644,12 +2022,55 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out qhw@ smyr located at HMCC+GGM qhw@ smyr, Thala. This top-rated destination is perfect for Cafe lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 04:00-00:00. To get there, use these GPS coordinates: 21.552119, 72.005783. For more details, visit their website at https://www.google.com/maps/place/%D9%82%D9%87%D9%88%D8%A9+%D8%B3%D9%85%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x12f962c55ec5b833:0x63c92e2c18ce3141!8m2!3d35.5713461!4d8.6712907!16s%2Fg%2F11c208qnh7!19sChIJM7jFXsVi-RIRQTHOGCwuyWM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>qhw@ smyr is a cafe located in Thala, Gujarat, India. It offers a variety of coffee and tea drinks, as well as snacks and pastries. The cafe is open from 4:00 AM to midnight, and is closed on Sundays. qhw@ smyr is rated 4.5 stars on Google, and has received positive reviews for its friendly staff and delicious coffee. The cafe is located at coordinates 21.552119, 72.005783.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated cafe located at HMCC+GGM in Thala, known for its exceptional 4.5 rating?</t>
+          <t>Day Plan:
+Morning: Explore the charming streets and local markets of Thala, immersing yourself in the town's unique culture.
+Mid-Morning: Visit the Sweet Cafe for a delightful cup of tea and pastries, savoring the local flavors and ambiance.
+Midday: Enjoy a traditional Tunisian lunch at Restaurant Faouzi Merguez &amp; Lablebi, indulging in the authentic cuisine of the region.
+Afternoon: Explore the Royal Kenz Hotel Thalasso &amp; Spa, relaxing and rejuvenating at its luxurious facilities and enjoying a refreshing swim in the pool.
+Evening: Head to Dar Thala for a peaceful and tranquil retreat, enjoying the picturesque garden and the serene atmosphere.
+Night: Experience the lively ambiance of Chicken House, sampling the delicious pizzas and soaking up the local vibe.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+Cafe el Homri is a cafe located in Thala, Gujarat, India. It is open 24 hours a day and offers a variety of food and drinks. The cafe is rated 5.0 out of 5 stars on Google and has received 1 review.
+Restaurant Faouzi Merguez &amp; Lablebi is located in Thala, Tunisia, at coordinates (34.0586402, -5.0208467). The restaurant offers a variety of dishes, including merguez, lablebi, and other traditional Tunisian cuisine. It is open from 05:00-16:00 and has a rating of 4.0 on Google Maps.
+The Royal Kenz Hotel Thalasso &amp; Spa is a 4.2-rated hotel located in thala and offers comfortable rooms and suites in a high-end complex with 3 swimming pools (1 indoor), a spa and mini-golf.
+**Radisson Blu Palace Resort &amp; Thalasso, Djerba**
+Nestled on the pristine shores of Djerba, Radisson Blu Palace Resort &amp; Thalasso offers an elegant retreat with panoramic sea views. Its luxurious rooms and suites feature bright and airy interiors, while amenities include a private beach, a spa with thalassotherapy treatments, and a variety of dining options. Located on the island of Djerba, the resort boasts a convenient location just a short drive from Houmt Souk and within easy reach of numerous attractions and activities.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+**lti Thalassa Sousse** is a train station located at Av. 14 Janvier, Sousse, Tunisia. It has a rating of 3.3 out of 5 based on 12 reviews. The coordinates of the station are (35.8605033, 10.6135856). The phone number is 73 275 355 and it is owned by lti Thalassa Sousse (proprietaire).
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1751,14 +2172,54 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in Thala and looking for a great Cafe, check out The Grind House located at HM9F+Q34 The Grind House, Thala. 
-This top-rated destination offers a range of Cafe options to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their link at https://www.google.com/maps/place/The+Grind+House/data=!4m7!3m6!1s0x12f963ea97b818bb:0xb7d97fed635f3393!8m2!3d35.5693819!4d8.6727159!16s%2Fg%2F11s5zhfg_0!19sChIJuxi4l-pj-RIRkzNfY-1_2bc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 96 052 367.</t>
+          <t>The Grind House is a cafe located in thala at the coordinates (44.801795, -68.771204) and has a rating of 5.0 based on 2 reviews. It offers (services, activities) and is open during the following days and hours: (workday_timing). You can contact them by phone at 96 052 367.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>What highly-rated cafe in Thala offers a range of options and is located at HM9F+Q34?</t>
+          <t>Day Plan:
+Morning: Explore Dar Thala, a peaceful hotel with stunning views and a 5-star rating.
+Mid-Morning: Visit Chicken House for a delicious pizza and soak in the local atmosphere.
+Midday: Try local cuisine at Restaurant Faouzi Merguez &amp; Lablebi, known for its merguez and lablebi.
+Afternoon: Visit the LA CIGALE TABARKA HOTEL, a luxury hotel with a jazz bar and golf course.
+Evening: Explore qhw@ lshTr cafe, a highly-rated spot with a cozy ambiance and inviting atmosphere.
+Night: Relax at the Djerba Plaza Thalasso &amp; Spa, a luxurious hotel with a range of facilities and amenities.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+qhw@ lshTr is a highly-rated cafe located in Thala, Gujarat, India. The cafe is praised for its cozy ambiance and inviting atmosphere. This cafe offers a fine selection of beverages and light refreshments. It is a perfect spot to relax and have conversations. The staff is hospitable and always ready to assist. The cafe is open from 8:00 am to 8:00 pm, making it a convenient option for a morning coffee or an evening tea.
+Restaurant Faouzi Merguez &amp; Lablebi is a restaurant located in thala, Tunisia. It offers a range of dishes, including merguez and lablebi. The restaurant is open from 05:00 to 16:00 and is located at HMCC+6GG P17. The restaurant has a rating of 4.0 and has received 8 reviews.
+Djerba Plaza Thalasso &amp; Spa is a luxurious hotel located in the touristic zone of Djerba Midun, Tunisia. It offers a wide range of facilities including 8 restaurants and bars, 3 swimming pools, a spa, and sports facilities. The hotel has 2491 rooms and suites, all of which are elegantly decorated and equipped with modern amenities. Djerba Plaza Thalasso &amp; Spa is a popular destination for tourists from all over the world, and it has received rave reviews for its excellent service, beautiful surroundings, and luxurious accommodations.
+The LA CIGALE TABARKA HOTEL is a luxury 5-star hotel located in Tabarka. It features multiple restaurants, a jazz bar, a golf course and a spa. It is located in the El Morgene tourist area, on the Tabarka Tourist Road. Its coordinates are (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+The lti Thalassa Sousse is a train station located in Thala, Tunisia. It is situated at the coordinates (35.8605033, 10.6135856). The station has a rating of 3.3 out of 5 based on 12 reviews.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1856,13 +2317,54 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something delicious, check out Restaurant miam's food located at HM9C+PC9 Restaurant miam's food, P17, Thala. 
-This top-rated destination is the perfect spot for Restaurant lovers, earning a remarkable rating of 5.0. Be sure to visit during their hours of operation. For more details, visit their website or call them at 99 676 429.</t>
+          <t>Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with a perfect score of 5.0 located in Thala?</t>
+          <t>Day Plan:
+Morning: Exploring the rich history and culture of Thala by visiting the Dar Thala, a local heritage site with a 5.0-star rating.
+Mid-Morning: Indulging in the exquisite flavors of Thala's culinary scene by trying local cuisine at the highly-rated Restaurant miam's food.
+Midday: Rejuvenating at the renowned LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF, experiencing their luxurious spa treatments and enjoying the breathtaking views.
+Afternoon: Embarking on an adventurous outdoor hike at a nearby natural park, immersing in the region's scenic landscapes.
+Evening: Savoring the local flavors at Chicken house, a popular pizzeria with a 5.0-star rating, known for its authentic pizzas.
+Night: Relaxing in the tranquil ambiance of the Royal Karthago Resort &amp; Thalasso, unwinding in their elegantly designed rooms and enjoying the warm hospitality.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+lqhw@ lHmr is a Cafe located in thala. It's a 4.6 rated place having 5 reviews with categories like Cafe. It is open during 05:00-23:00 hours.
+Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.
+The Royal Karthago Resort &amp; Thalasso is a four-star hotel with a rating of 4.1 on Google. It is located in Midoun, Aghir 4116, Tunisia, on the latitude - nan and longitude - nan. The hotel offers a range of amenities including a restaurant, spa, pool, and fitness center. The rooms are described as "unpretentious" and the hotel has a "convivial" atmosphere. Popular nearby attractions include B.P. 125 and the Aghir mountain.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end balneotherapy complex located in Tabarka, Tunisia. It has multiple restaurants including a jazz bar, a golf course, and a spa. It is located at the following coordinates: (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti Thalassa Sousse is a train station with a rating of 3.3 found in the city of Sousse, Tunisia. It's located at the following coordinates: (35.8605033, 10.6135856). This place offers a variety of amenities and services to its customers.
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1960,12 +2462,54 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in Thala and looking for a great place to grab a cup of coffee, check out La nouvelle cafe located at HMC9+JV5. This top-rated cafe is a must-visit spot for coffee lovers and offers a range of coffee drinks to choose from. With a rating of 5.0, it's a spot you won't want to miss. To get there, use these GPS coordinates: 21.552119, 72.005783.</t>
+          <t>La nouvelle café is a highly rated café located in Thala, Gujarat, India. It offers a cozy and inviting atmosphere, perfect for enjoying a cup of coffee, tea, or a light meal. With its convenient location and ample parking, La nouvelle café is easily accessible and a great place to relax and socialize.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe known for its exceptional coffee offerings in Thala, with the convenience of GPS coordinates to assist your visit?</t>
+          <t>Day Plan:
+Morning: Exploring the bustling city of Thala by visiting the local market for souvenirs and local products.
+Mid-Morning: Trying local cuisine at Restaurant miam's food, which offers a variety of dishes.
+Midday: Visiting the Dar Thala for a peaceful and relaxing getaway, taking advantage of the swimming pool, garden, and restaurant.
+Afternoon: Enjoying scenic views at the TOTAL Thala (1 station), a renowned gas station offering exceptional services and a 5-star rating.
+Evening: Experiencing cultural immersion at the Sweet Cafe, a well-rated tea salon offering 24/7 service and a high rating of 5.0.
+Night: Relaxing with a spa treatment at The Royal Kenz Hotel Thalasso &amp; Spa, a luxurious hotel offering spacious rooms and suites with stunning views of the Mediterranean Sea.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+lqhw@ lHmr is a Cafe located in thala. It's a 4.6 rated place having 5 reviews with categories like Cafe. It is open during 05:00-23:00 hours.
+Restaurant miam's food is a highly rated (5.0/5 from 2 reviews) restaurant located in Thala, Gujarat, India. Its exact location is 21.552119, 72.005783. The restaurant offers a variety of dishes, but its specific offerings are not available in the provided information.
+The Royal Kenz Hotel Thalasso &amp; Spa is a luxurious hotel located in Hammam Sousse, Tunisia. It offers spacious rooms and suites with a blend of traditional and modern décor. Guests can enjoy three swimming pools, including an indoor pool, a spa, and a mini-golf course. The hotel is situated near the beach and offers stunning views of the Mediterranean Sea. With a rating of 4.2 out of 5, it is a popular destination for both leisure and business travelers
+The LA CIGALE TABARKA HOTEL is a luxury 5-star hotel located in Tabarka. It features multiple restaurants, a jazz bar, a golf course and a spa. It is located in the El Morgene tourist area, on the Tabarka Tourist Road. Its coordinates are (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti El Ksar Resort &amp; Thalasso is a 4.3-rated resort located in Sousse, Tunisia. It offers Thalasso treatments and features 14 reviews from guests. It is easily accessible via its central location and has a variety of amenities, including a restaurant, bar, and garden. The resort is situated near the beach, making it a great choice for a relaxing getaway.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2611,54 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a top-rated Cafe, check out Cafe el Homri located at HMQ9+3FW Cafe el Homri, Thala. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+el+Homri/data=!4m7!3m6!1s0x12f9638c5435d04b:0x73323b4a56bbb71!8m2!3d35.5877256!4d8.668707!16s%2Fg%2F11y1mq25zx!19sChIJS9A1VIxj-RIRcbtrpbQjMwc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe el Homri, located in Thala, coordinates (21.552119, 72.005783), is a highly-rated cafe that operates 24/7. It offers a cozy and welcoming ambiance, attracting patrons seeking a relaxing escape or a quick caffeine fix.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>When in Thala, where can you find a highly-rated (5.0) and conveniently open 24 hours a day Cafe?</t>
+          <t>Day Plan:
+Morning: Explore Queen "cafe-resto" for a local breakfast and coffee experience.
+Mid-Morning: Visit the Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel for a relaxing spa treatment and enjoy the beautiful gardens.
+Midday: Try local cuisine at Restaurant miam's food for a delightful culinary experience.
+Afternoon: Explore LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF to admire its luxurious ambiance and stunning views.
+Evening: Participate in a guided tour of Dar Thala for a peaceful and historical experience.
+Night: Enjoy a scenic dinner at Sweet Cafe, known for its ambiance and highly-rated tea selections.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+Queen "cafe-resto" is a cafe located in Thala, Gujarat, India. It is rated 5.0 out of 5 stars based on 1 review. The cafe offers a wide range of food and drinks, including coffee, tea, pastries, and sandwiches. It is open from 8:00 AM to 12:00 AM, 7 days a week.
+Restaurant miam's food is a highly rated (5.0/5 from 2 reviews) restaurant located in Thala, Gujarat, India. Its exact location is 21.552119, 72.005783. The restaurant offers a variety of dishes, but its specific offerings are not available in the provided information.
+The Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel is a chic hotel located in thala that offers contemporary rooms and suites with balconies, a spa, and two swimming pools. With a 4.4 rating based on 265 reviews, the hotel is known for its comfortable and calming atmosphere, friendly staff, and proximity to the beach. Guests also appreciate the hotel's thalasso treatments, golf course, and beautiful gardens.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end hotel complex with multiple restaurants, a jazz bar, a golf course, and a spa. It is located in a prime touristic Zone with coordinates (36.95742, 8.75096). The 5-star complex features breathtaking views, halal-friendly amenities, and a luxurious ambiance that has received high praise from its guests.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti El Ksar Resort &amp; Thalasso is a resort located in Sousse, Tunisia. It is a popular destination for tourists seeking a relaxing and rejuvenating vacation. The resort offers a variety of amenities, including a thalasso spa, swimming pools, and restaurants. It is also conveniently located near the beach and other attractions.
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2174,12 +2760,54 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out Queen "cafe-resto" located at HMV6+FPV Queen "cafe-resto", Thala. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 21.552119, 72.005783. For more details, visit their website https://www.google.com/maps/place/Queen+%22caf%C3%A9-resto%22/data=!4m7!3m6!1s0x12f9633ae5de1413:0x9e475119a82e0100!8m2!3d35.5937497!4d8.6617907!16s%2Fg%2F11smz8k1yr!19sChIJExTe5Tpj-RIRAAEuqBlRR54?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Queen "cafe-resto" is a local cafe located in Thala, Gujarat. It has an average rating of 5.0 with 1 review. The cafe operates from 8:00 am to 12:00 am, every day of the week.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where in Thala can you find a highly-rated cafe with a wide selection of cafe options, open from 8 am to midnight?</t>
+          <t>Day Plan:
+Morning: Explore Sweet Cafe, a well-rated tea salon in Thala, offering 24/7 service and a cozy ambiance.
+Mid-Morning: Try local cuisine at Mourade Mlawi, a highly-rated restaurant known for its delectable cuisine and warm ambiance.
+Midday: Visit Dar Thala, a peaceful and relaxing hotel with a 5.0 rating and amenities like a swimming pool, garden, and restaurant.
+Afternoon: Enjoy a guided tour of Chicken House, a pizzeria with a 5.0 rating and delicious pizzas.
+Evening: Relax with a massage at Hasdrubal Thalassa &amp; Spa Port El Kantaou, a chic hotel with contemporary rooms and a luxurious spa.
+Night: Experience cultural immersion at LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF, a luxury 5-star resort with stunning views and a private beach.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+La nouvelle café is a highly rated café located in Thala, Gujarat, India. It offers a cozy and inviting atmosphere, perfect for enjoying a cup of coffee, tea, or a light meal. With its convenient location and ample parking, La nouvelle café is easily accessible and a great place to relax and socialize.
+Mourade Mlawi is a highly-rated restaurant in Thala known for its delectable cuisine. Located at the coordinates (21.552119, 72.005783), it offers a warm and inviting ambiance for diners. With a 5.0 rating based on two reviews, it has garnered a strong reputation among locals and visitors alike.
+Hasdrubal Thalassa &amp; Spa Port El Kantaou is a chic hotel located on a beach front in Zone Touristique, Port El Kantaoui. It features contemporary rooms and suites equipped with balconies, a spa, two pools and is situated close to a golf course.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a luxury 5-star resort located in Tabarka, Tunisia. It features stunning views, a private beach, and a wide range of amenities.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+**lti Thalassa Sousse** is a train station located at Av. 14 Janvier, Sousse, Tunisia. It has a rating of 3.3 out of 5 based on 12 reviews. The coordinates of the station are (35.8605033, 10.6135856). The phone number is 73 275 355 and it is owned by lti Thalassa Sousse (proprietaire).
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2289,14 +2917,54 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a place to stay, check out Royal Kenz Hotel Thalasso &amp; Spa located at WH6H+6JX Royal Kenz Hotel Thalasso &amp; Spa, Hammam Sousse. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. For more details, visit their website at http://www.hotelroyalkenz.com/ or call them at 73 246 100.</t>
+          <t>The Royal Kenz Hotel Thalasso &amp; Spa is a 4.2-rated hotel located in thala and offers comfortable rooms and suites in a high-end complex with 3 swimming pools (1 indoor), a spa and mini-golf.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>If you're in Tunisia and seeking a highly rated Hotel destination with various categories to meet your preferences, what is the name of the Hotel located at WH6H+6JX Royal Kenz Hotel Thalasso &amp; Spa, Hammam Sousse that's perfect for Hotel enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Thala, a historic town known for its scenic landscapes and cultural landmarks.
+Mid-Morning: Trying local cuisine at Sweet Cafe, a well-rated tea salon offering authentic Tunisian tea and pastries.
+Midday: Visiting Restaurant Faouzi Merguez &amp; Lablebi to indulge in traditional Tunisian dishes like merguez and lablebi.
+Afternoon: Relaxing with a rejuvenating massage at Dar Thala, a peaceful hotel renowned for its luxurious spa services.
+Evening: Experiencing cultural immersion at the ancient Roman ruins of Thala, where you can explore the amphitheater and other historical remnants.
+Night: Enjoying dinner at LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF, a prestigious resort that offers a delectable culinary experience.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+The Grind House is a cafe located in thala at the coordinates (44.801795, -68.771204) and has a rating of 5.0 based on 2 reviews. It offers (services, activities) and is open during the following days and hours: (workday_timing). You can contact them by phone at 96 052 367.
+Restaurant Faouzi Merguez &amp; Lablebi is located in Thala, Tunisia, at coordinates (34.0586402, -5.0208467). The restaurant offers a variety of dishes, including merguez, lablebi, and other traditional Tunisian cuisine. It is open from 05:00-16:00 and has a rating of 4.0 on Google Maps.
+Odyssee Resort Thalasso &amp; Spa Zarzis is located in Zarzis, Tunisia. It is a popular resort that offers a variety of amenities and activities, including 5 restaurants, swimming pools, a private beach, and tennis courts. The resort is committed to exceptional service and comfort for all of its guests. Its main category is Hotel.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end balneotherapy complex located in Tabarka, Tunisia. It has multiple restaurants including a jazz bar, a golf course, and a spa. It is located at the following coordinates: (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+**lti Thalassa Sousse** is a train station located at Av. 14 Janvier, Sousse, Tunisia. It has a rating of 3.3 out of 5 based on 12 reviews. The coordinates of the station are (35.8605033, 10.6135856). The phone number is 73 275 355 and it is owned by lti Thalassa Sousse (proprietaire).
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2406,14 +3074,54 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a top-rated Hotel, check out Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel located at Hasdrubal Thalassa &amp; Spa, Zone Touristique Port El Kantaoui, Port El Kantaoui 4089. 
-This popular destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: (33.8403362, 10.9990215). For more details, visit their website at http://kantaoui.hasdrubal-thalassa.com/ or call them at 73 348 944.</t>
+          <t>Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel is a 4.4 stars waterfront hotel in Port El Kantaoui, Tunisia. It offers luxury rooms and suites, all of which feature a balcony. The hotel has a spa, two swimming pools, and a restaurant. It's located in a touristic area with a golf and a beach nearby.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where in Thala can you find a highly-rated hotel with exceptional amenities for hotel enthusiasts, situated at GPS coordinates (33.8403362, 10.9990215)?</t>
+          <t>Day Plan:
+Morning: Enjoy a delightful breakfast at Sweet Cafe (20 261 962), a tea salon with rave reviews and 24/7 service.
+Mid-Morning: Embark on a guided tour of LA CIGALE TABARKA HOTEL, a luxurious 5-star hotel renowned for its multiple restaurants, jazz bar, golf course, and spa.
+Midday: Savor a delectable lunch at Restaurant miam's food, a highly-rated restaurant with a 5.0 rating and a warm ambiance.
+Afternoon: Relax and rejuvenate with thalasso treatments at The Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel, a chic hotel with a 4.4 rating and a serene atmosphere.
+Evening: Explore the bustling city of Thala, taking in its vibrant markets and cultural immersion at local museums and cultural sites.
+Night: Indulge in a memorable dinner at Dar Thala, a hotel with a 5.0 rating and a peaceful and relaxing ambiance.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+qhw@ smyr is a cafe located in Thala, Gujarat, India. It offers a variety of coffee and tea drinks, as well as snacks and pastries. The cafe is open from 4:00 AM to midnight, and is closed on Sundays. qhw@ smyr is rated 4.5 stars on Google, and has received positive reviews for its friendly staff and delicious coffee. The cafe is located at coordinates 21.552119, 72.005783.
+Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.
+The Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel is a chic hotel located in thala that offers contemporary rooms and suites with balconies, a spa, and two swimming pools. With a 4.4 rating based on 265 reviews, the hotel is known for its comfortable and calming atmosphere, friendly staff, and proximity to the beach. Guests also appreciate the hotel's thalasso treatments, golf course, and beautiful gardens.
+The LA CIGALE TABARKA HOTEL is a luxury 5-star hotel located in Tabarka. It features multiple restaurants, a jazz bar, a golf course and a spa. It is located in the El Morgene tourist area, on the Tabarka Tourist Road. Its coordinates are (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti El Ksar Resort &amp; Thalasso is a 4.3-rated resort located in Sousse, Tunisia. It offers Thalasso treatments and features 14 reviews from guests. It is easily accessible via its central location and has a variety of amenities, including a restaurant, bar, and garden. The resort is situated near the beach, making it a great choice for a relaxing getaway.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2523,14 +3231,54 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a great place to stay, check out Royal Kenz Hotel Thalasso &amp; Spa located at WH6H+6JX Royal Kenz Hotel Thalasso &amp; Spa, Hammam Sousse. 
-This top-rated destination is perfect for hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.91, 10.57828. For more details, visit their website at http://www.hotelroyalkenz.com/ or call them at 73 246 100.</t>
+          <t>The Royal Kenz Hotel Thalasso &amp; Spa is a luxurious hotel located in Hammam Sousse, Tunisia. It offers spacious rooms and suites with a blend of traditional and modern décor. Guests can enjoy three swimming pools, including an indoor pool, a spa, and a mini-golf course. The hotel is situated near the beach and offers stunning views of the Mediterranean Sea. With a rating of 4.2 out of 5, it is a popular destination for both leisure and business travelers</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated hotel with various accommodation options in Thala, offering a luxurious stay with a 4.2-star rating?</t>
+          <t>Day Plan:
+Morning: Explore the historic streets of Thala
+Mid-Morning: Try local cuisine at Restaurant miam's food
+Midday: Visit the Dar Thala for a relaxing getaway
+Afternoon: Enjoy scenic views at the Queen "cafe-resto"
+Evening: Participate in a cultural immersion at the Chicken house
+Night: Relax with a spa treatment at Odyssee Resort Thalasso &amp; Spa Zarzis</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+Queen "cafe-resto" is a 5-star rated cafe located in Thala. It offers a cozy atmosphere and a wide selection of coffee and tea beverages. The cafe is open from 8 AM to midnight, making it a great place to relax and enjoy a cup of coffee or tea. It is conveniently located at the coordinates (21.552119, 72.005783).
+Restaurant miam's food is a highly rated (5.0/5 from 2 reviews) restaurant located in Thala, Gujarat, India. Its exact location is 21.552119, 72.005783. The restaurant offers a variety of dishes, but its specific offerings are not available in the provided information.
+Odyssee Resort Thalasso &amp; Spa Zarzis is located in Zarzis, Tunisia. It is a popular resort that offers a variety of amenities and activities, including 5 restaurants, swimming pools, a private beach, and tennis courts. The resort is committed to exceptional service and comfort for all of its guests. Its main category is Hotel.
+The LA CIGALE TABARKA HOTEL is a luxury 5-star hotel located in Tabarka. It features multiple restaurants, a jazz bar, a golf course and a spa. It is located in the El Morgene tourist area, on the Tabarka Tourist Road. Its coordinates are (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti El Ksar Resort &amp; Thalasso is a 4.3-rated resort located in Sousse, Tunisia. It offers Thalasso treatments and features 14 reviews from guests. It is easily accessible via its central location and has a variety of amenities, including a restaurant, bar, and garden. The resort is situated near the beach, making it a great choice for a relaxing getaway.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2640,13 +3388,54 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a luxurious stay, check out Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel located at Hasdrubal Thalassa &amp; Spa, Zone Touristique Port El Kantaoui, Port El Kantaoui 4089. 
-This top-rated destination is perfect for Hotel lovers and has a rating of 4.4. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 33.8403362, 10.9990215. For more details, visit their website at http://kantaoui.hasdrubal-thalassa.com/ or call them at 73 348 944.</t>
+          <t>The Hasdrubal Thalassa &amp; Spa Hotel in Port El Kantaoui, Tunisia, provides an upscale beachfront experience. With 2154 contemporary rooms and suites featuring private balconies, the hotel offers a rejuvenating spa and two refreshing swimming pools for guests to indulge in. Conveniently located at Hasdrubal Thalassa &amp; Spa, Zone Touristique Port El Kantaoui, Port El Kantaoui 4089, the hotel boasts a 4.4-star rating and has received positive reviews from 265 satisfied guests.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where is the luxurious Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel located, offering a highly rated experience for discerning travelers?</t>
+          <t>Day Plan:
+Morning: Exploring Sweet Cafe
+Mid-Morning: Trying local cuisine at Restaurant miam's food
+Midday: Visiting Djerba Plaza Thalasso &amp; Spa
+Afternoon: Enjoying a relaxing spa treatment at Djerba Plaza Thalasso &amp; Spa
+Evening: Having dinner at Chicken house
+Night: Experiencing cultural immersion at Dar Thala</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+qhw@ smyr is a cafe located in Thala, Gujarat, India. It offers a variety of coffee and tea drinks, as well as snacks and pastries. The cafe is open from 4:00 AM to midnight, and is closed on Sundays. qhw@ smyr is rated 4.5 stars on Google, and has received positive reviews for its friendly staff and delicious coffee. The cafe is located at coordinates 21.552119, 72.005783.
+Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.
+Djerba Plaza Thalasso &amp; Spa is a luxurious hotel located in the touristic zone of Djerba Midun, Tunisia. It offers a wide range of facilities including 8 restaurants and bars, 3 swimming pools, a spa, and sports facilities. The hotel has 2491 rooms and suites, all of which are elegantly decorated and equipped with modern amenities. Djerba Plaza Thalasso &amp; Spa is a popular destination for tourists from all over the world, and it has received rave reviews for its excellent service, beautiful surroundings, and luxurious accommodations.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a luxury 5-star resort located in Tabarka, Tunisia. It features stunning views, a private beach, and a wide range of amenities.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti El Ksar Resort &amp; Thalasso is a 4.3-rated resort located in Sousse, Tunisia. It offers Thalasso treatments and features 14 reviews from guests. It is easily accessible via its central location and has a variety of amenities, including a restaurant, bar, and garden. The resort is situated near the beach, making it a great choice for a relaxing getaway.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2756,14 +3545,54 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a place to stay, check out LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF located at Zone touristique El Morgene, 1 Tabarka Touristic Road, Tabarka 8110.
-This top-rated destination is perfect for Complexe hotelier lovers and offers a range of categories to choose from.
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.95742, 8.75096. For more details, visit their website at http://www.lacigaletabarka.com/ or call them at 70 019 000.</t>
+          <t>LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a luxury 5-star resort located in Tabarka, Tunisia. It features stunning views, a private beach, and a wide range of amenities.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where can you find LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF, a top-rated accommodation with a focus on Complexe hotelier enthusiasts?</t>
+          <t>Day Plan:
+Morning: Visit Mourade Mlawi for a delectable breakfast and experience the local taste.
+Mid-Morning: Explore Sweet Cafe, known for its 24/7 service and highly rated tea selections.
+Midday: Take a break from the bustling town and relax in the peaceful gardens of Dar Thala, enjoying the serene atmosphere.
+Afternoon: Embark on a guided tour of Djerba Plaza Thalasso &amp; Spa, marveling at its stunning architecture and luxurious amenities.
+Evening: Indulge in a memorable dinner at Queen "cafe-resto," savoring the flavors of local cuisine in a cozy ambiance.
+Night: Experience traditional Tunisian culture with live music and entertainment at LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+Queen "cafe-resto" is a local cafe located in Thala, Gujarat. It has an average rating of 5.0 with 1 review. The cafe operates from 8:00 am to 12:00 am, every day of the week.
+Mourade Mlawi is a highly-rated restaurant in Thala known for its delectable cuisine. Located at the coordinates (21.552119, 72.005783), it offers a warm and inviting ambiance for diners. With a 5.0 rating based on two reviews, it has garnered a strong reputation among locals and visitors alike.
+Djerba Plaza Thalasso &amp; Spa is a 4-star hotel located in Djerba Midun, Tunisia (33.83034, 11.00694). It features 2424 rooms and offers 8 restaurants and bars, 3 swimming pools, a spa, and sport facilities, making it a perfect spot to enjoy the sun and the sea while pampering yourself with a relaxing stay.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end balneotherapy complex located in Tabarka, Tunisia. It has multiple restaurants including a jazz bar, a golf course, and a spa. It is located at the following coordinates: (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+**lti Thalassa Sousse** is a train station located at Av. 14 Janvier, Sousse, Tunisia. It has a rating of 3.3 out of 5 based on 12 reviews. The coordinates of the station are (35.8605033, 10.6135856). The phone number is 73 275 355 and it is owned by lti Thalassa Sousse (proprietaire).
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2873,13 +3702,54 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a luxurious getaway, check out LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF located at LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF, Zone touristique El Morgene, 1 Tabarka Touristic Road, Tabarka 8110. 
-This top-rated destination is perfect for those seeking a relaxing and rejuvenating experience. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.95742, 8.75096. For more details, visit their website at http://www.lacigaletabarka.com/ or call them at 70 019 000.</t>
+          <t>The LA CIGALE TABARKA HOTEL is a luxury 5-star hotel located in Tabarka. It features multiple restaurants, a jazz bar, a golf course and a spa. It is located in the El Morgene tourist area, on the Tabarka Tourist Road. Its coordinates are (36.95742, 8.75096).</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where can you find a luxurious retreat in Thala with a relaxing spa and rejuvenating atmosphere, rated 4.5 and accessible via the GPS coordinates 36.95742, 8.75096?</t>
+          <t>Day Plan:
+Morning: Explore Sweet Cafe for a leisurely breakfast and tea in Thala.
+Mid-Morning: Visit Ulysse Djerba Thalasso &amp; Spa for a rejuvenating swim in the outdoor pool.
+Midday: Try local cuisine at Restaurant miam's food for a delightful dining experience.
+Afternoon: Visit Dar Thala for a relaxing afternoon by the pool.
+Evening: Explore LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF for a memorable dinner with a serene ambiance.
+Night: Enjoy scenic views at Sidi Mehrez Beach with a calming evening stroll.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+Queen "cafe-resto" is a local cafe located in Thala, Gujarat. It has an average rating of 5.0 with 1 review. The cafe operates from 8:00 am to 12:00 am, every day of the week.
+Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.
+Nestled on the idyllic shores of Sidi Mehrez Beach, Ulysse Djerba Thalasso &amp; Spa is a luxurious 4.1-rated hotel. Boasting a prime location in Mezraya, it offers a range of indulgent amenities including fine dining options, a rejuvenating spa, tennis courts, and sparkling indoor and outdoor pools. With a host of rave reviews and ratings averaging 4.1, this upscale establishment promises an unforgettable stay.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end balneotherapy complex located in Tabarka, Tunisia. It has multiple restaurants including a jazz bar, a golf course, and a spa. It is located at the following coordinates: (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+The lti Thalassa Sousse is a train station located in Sousse, Tunisia. It is situated at the coordinates (35.8605033, 10.6135856) and offers train services to various destinations.
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2989,15 +3859,62 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a luxurious getaway, check out Radisson Blu Palace Resort &amp; Thalasso, Djerba located at Radisson Blu Palace Resort &amp; Thalasso, Djerba, Houmt Souk 4128. 
-This top-rated 4.0-star resort is perfect for those seeking a relaxing and rejuvenating escape. 
-With a range of amenities including a spa, hammam, and direct beach access, it's the ideal spot to unwind and soak up the sun. 
-For more details, visit their website at https://www.radissonhotels.com/en-us/hotels/radisson-blu-resort-djerba%3Fcid%3Da:se%2Bb:gmb%2Bc:emea%2Bi:local%2Be:rdb%2Dd:mea%2Bh:TNDJERTH or call them at 75 757 600.</t>
+          <t>**Radisson Blu Palace Resort &amp; Thalasso, Djerba**
+Nestled on the pristine shores of Djerba, Radisson Blu Palace Resort &amp; Thalasso offers an elegant retreat with panoramic sea views. Its luxurious rooms and suites feature bright and airy interiors, while amenities include a private beach, a spa with thalassotherapy treatments, and a variety of dining options. Located on the island of Djerba, the resort boasts a convenient location just a short drive from Houmt Souk and within easy reach of numerous attractions and activities.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>What luxurious 4.0-star resort on Djerba island offers a spa, hammam, and direct beach access for a relaxing getaway?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the Thala city center
+- Visit the Queen "cafe-resto" for a cozy coffee break
+**Mid-Morning:**
+- Take a guided tour of Dar Thala for a peaceful retreat
+**Midday:**
+- Try local cuisine at Sweet Cafe, a well-rated tea salon
+**Afternoon:**
+- Enjoy the scenic views at Chicken house pizzeria, located on the coordinates (38.91539, -77.020328)
+**Evening:**
+- Participate in the cultural immersion at the Odyssee Resort Thalasso &amp; Spa Zarzis, a popular resort with exceptional service
+**Night:**
+- Relax with a spa treatment at The LA CIGALE TABARKA HOTEL, a luxury 5-star hotel</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+Queen "cafe-resto" is a 5-star rated cafe located in Thala. It offers a cozy atmosphere and a wide selection of coffee and tea beverages. The cafe is open from 8 AM to midnight, making it a great place to relax and enjoy a cup of coffee or tea. It is conveniently located at the coordinates (21.552119, 72.005783).
+Restaurant Faouzi Merguez &amp; Lablebi is a restaurant located in thala, Tunisia. It offers a range of dishes, including merguez and lablebi. The restaurant is open from 05:00 to 16:00 and is located at HMCC+6GG P17. The restaurant has a rating of 4.0 and has received 8 reviews.
+Odyssee Resort Thalasso &amp; Spa Zarzis is located in Zarzis, Tunisia. It is a popular resort that offers a variety of amenities and activities, including 5 restaurants, swimming pools, a private beach, and tennis courts. The resort is committed to exceptional service and comfort for all of its guests. Its main category is Hotel.
+The LA CIGALE TABARKA HOTEL is a luxury 5-star hotel located in Tabarka. It features multiple restaurants, a jazz bar, a golf course and a spa. It is located in the El Morgene tourist area, on the Tabarka Tourist Road. Its coordinates are (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+The lti Thalassa Sousse is a train station located in Thala, Tunisia. It is situated at the coordinates (35.8605033, 10.6135856). The station has a rating of 3.3 out of 5 based on 12 reviews.
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3099,12 +4016,54 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out Royal Karthago Resort &amp; Thalasso located at B.P. 125, Royal Karthago Resort &amp; Thalasso, Midoun, Aghir 4116. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: nan, nan. For more details, visit their website at https://royalkarthago.com/ or call them at 75 751 000.</t>
+          <t>The Royal Karthago Resort &amp; Thalasso is a four-star hotel with a rating of 4.1 on Google. It is located in Midoun, Aghir 4116, Tunisia, on the latitude - nan and longitude - nan. The hotel offers a range of amenities including a restaurant, spa, pool, and fitness center. The rooms are described as "unpretentious" and the hotel has a "convivial" atmosphere. Popular nearby attractions include B.P. 125 and the Aghir mountain.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Hotel in Midoun, Aghir that offers a variety of Hotel options for Hotel lovers, making it a popular destination with a rating of 4.1?</t>
+          <t>Day Plan:
+Morning: Explore the quaint alleys and streets of Thala, immersing yourself in its local charm and vibrant atmosphere.
+Mid-Morning: Visit Sweet Cafe for a delightful tea and pastry, soaking in the cozy ambiance and warm hospitality.
+Midday: Savor a delicious and authentic meal at Restaurant miam's food, where you can indulge in traditional local flavors and culinary delights.
+Afternoon: Unwind and rejuvenate at TOTAL Thala (1 station), where you can indulge in a pampering self-care session.
+Evening: Head to Chicken house for a casual and satisfying dinner, enjoying mouthwatering pizza amidst a lively and welcoming atmosphere.
+Night: Experience the cultural heritage and artistic beauty of Thala by visiting the local theater or attending a traditional music performance.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+mqh~ lHj mnwr Cafe Elhaj Mnawer is a popular cafe located in Thala, Tunisia, offering a cozy and welcoming atmosphere for locals and tourists alike. Situated at coordinates (35.5857757, 8.6046366), it is easily accessible and conveniently located. The cafe serves up delicious food and beverages, catering to a wide range of tastes and preferences. Its 24-hour营业模式 makes it a great spot to relax and enjoy a cup of coffee or tea any time of the day or night.
+Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.
+Nestled on the idyllic shores of Sidi Mehrez Beach, Ulysse Djerba Thalasso &amp; Spa is a luxurious 4.1-rated hotel. Boasting a prime location in Mezraya, it offers a range of indulgent amenities including fine dining options, a rejuvenating spa, tennis courts, and sparkling indoor and outdoor pools. With a host of rave reviews and ratings averaging 4.1, this upscale establishment promises an unforgettable stay.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end balneotherapy complex located in Tabarka, Tunisia. It has multiple restaurants including a jazz bar, a golf course, and a spa. It is located at the following coordinates: (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti El Ksar Resort &amp; Thalasso is a resort located in Sousse, Tunisia. It is a popular destination for tourists seeking a relaxing and rejuvenating vacation. The resort offers a variety of amenities, including a thalasso spa, swimming pools, and restaurants. It is also conveniently located near the beach and other attractions.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3210,13 +4169,54 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a place to stay, check out Djerba Plaza Thalasso &amp; Spa located at Zone Touristique, Djerba Midun. 
-This top-rated destination is perfect for hotel lovers and has a rating of 4.2. To get there, use these GPS coordinates: 33.83034, 11.00694. For more details, visit their website at https://www.google.com/maps/place/Djerba+Plaza+Thalasso+%26+Spa/data=!4m10!3m9!1s0x13aa978c4297c42f:0xf99ff9bd5e73f6d2!5m2!4m1!1i2!8m2!3d33.831071!4d11.0079784!16s%2Fg%2F11b6383dw1!19sChIJL8SXQoyXqhMR0vZzXr35n_k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 731 230.</t>
+          <t>Djerba Plaza Thalasso &amp; Spa is a 4-star hotel located in Djerba Midun, Tunisia (33.83034, 11.00694). It features 2424 rooms and offers 8 restaurants and bars, 3 swimming pools, a spa, and sport facilities, making it a perfect spot to enjoy the sun and the sea while pampering yourself with a relaxing stay.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated hotel with a 4.2 rating in Djerba, accessible via GPS coordinates 33.83034, 11.00694?</t>
+          <t>Day Plan:
+Morning: Explore Sweet Cafe, a highly-rated tea salon known for its exquisite tea offerings and welcoming ambiance.
+Mid-Morning: Visit Queen "cafe-resto" for a taste of authentic Indian cuisine, savoring the flavors of local dishes and refreshing beverages.
+Midday: Indulge in a delightful lunch at Restaurant miam's food, tantalizing your taste buds with delectable culinary creations.
+Afternoon: Immerse yourself in the serene atmosphere of Dar Thala, a haven of tranquility where you can unwind by the poolside, amidst lush greenery and impeccable service.
+Evening: Experience the vibrant culture of the region with a traditional music performance at the jazz bar of LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF, while enjoying panoramic views.
+Night: Conclude your day with a delectable dinner at Chicken house, relishing the authentic flavors of Italian cuisine in a cozy and inviting setting.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+Queen "cafe-resto" is a cafe located in Thala, India. It offers a wide range of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe has a cozy atmosphere and is a great place to relax and enjoy a bite to eat. It is located at (21.552119, 72.005783).
+Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.
+The Royal Karthago Resort &amp; Thalasso is a four-star hotel with a rating of 4.1 on Google. It is located in Midoun, Aghir 4116, Tunisia, on the latitude - nan and longitude - nan. The hotel offers a range of amenities including a restaurant, spa, pool, and fitness center. The rooms are described as "unpretentious" and the hotel has a "convivial" atmosphere. Popular nearby attractions include B.P. 125 and the Aghir mountain.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end hotel complex with multiple restaurants, a jazz bar, a golf course, and a spa. It is located in a prime touristic Zone with coordinates (36.95742, 8.75096). The 5-star complex features breathtaking views, halal-friendly amenities, and a luxurious ambiance that has received high praise from its guests.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti El Ksar Resort &amp; Thalasso is a 4.3-rated resort located in Sousse, Tunisia. It offers Thalasso treatments and features 14 reviews from guests. It is easily accessible via its central location and has a variety of amenities, including a restaurant, bar, and garden. The resort is situated near the beach, making it a great choice for a relaxing getaway.
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3322,14 +4322,54 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in thala looking for a place to rest, check out Ulysse Djerba Thalasso &amp; Spa located at Ulysse Djerba Thalasso &amp; Spa, Route touristique, Plage de Sidi Mehrez, Mezraya, Houmt Souk , Djerba Tunisie Houmt Souk, djerba TN 4128,, Mezraya.
-This top-rated hotel is perfect for hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 33.869908, 10.9625. For more details, call them at 75 758 777.</t>
+          <t>Nestled on the idyllic shores of Sidi Mehrez Beach, Ulysse Djerba Thalasso &amp; Spa is a luxurious 4.1-rated hotel. Boasting a prime location in Mezraya, it offers a range of indulgent amenities including fine dining options, a rejuvenating spa, tennis courts, and sparkling indoor and outdoor pools. With a host of rave reviews and ratings averaging 4.1, this upscale establishment promises an unforgettable stay.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated hotel (4.1) called Ulysse Djerba Thalasso &amp; Spa that is perfect for relaxation seekers?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring the historic and picturesque medina of Thala, where you can soak in the bustling atmosphere and discover hidden gems.
+Mid-Morning: Treat your taste buds to a traditional Tunisian breakfast at Sweet Cafe, known for its delightful pastries and refreshing tea.
+Midday: Visit the lti Thalassa Sousse train station and marvel at the architectural beauty of this historic landmark. Take a leisurely stroll along the nearby beach, enjoying the scenic views and the gentle sea breeze.
+Afternoon: Immerse yourself in the cultural heritage of Thala by visiting the Dar Thala museum, which houses a remarkable collection of artifacts and exhibits that showcase the region's rich history.
+Evening: Indulge in a delectable dinner at Mourade Mlawi, a highly-acclaimed restaurant that serves authentic Tunisian cuisine in a warm and inviting ambiance.
+Night: Unwind and relax at the Royal Kenz Hotel Thalasso &amp; Spa, where you can soothe your body and mind in the luxurious spa, take a refreshing dip in the pool, or simply admire the captivating views of the surrounding landscape.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+mqh~ lHj mnwr Cafe Elhaj Mnawer is a Cafe located in Thala, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. It has a rating of 5 stars on Google Reviews and is known for its friendly staff and delicious food. The cafe is located at HMG9+4R7 mqh~ lHj mnwr Cafe Elhaj Mnawer, P17, Thala 1210, Tunisia. Its coordinates are (35.5857757, 8.6046366).
+Mourade Mlawi is a highly-rated restaurant in Thala known for its delectable cuisine. Located at the coordinates (21.552119, 72.005783), it offers a warm and inviting ambiance for diners. With a 5.0 rating based on two reviews, it has garnered a strong reputation among locals and visitors alike.
+The Royal Kenz Hotel Thalasso &amp; Spa is a 4.2-rated hotel located in thala and offers comfortable rooms and suites in a high-end complex with 3 swimming pools (1 indoor), a spa and mini-golf.
+The LA CIGALE TABARKA HOTEL is a luxury 5-star hotel located in Tabarka. It features multiple restaurants, a jazz bar, a golf course and a spa. It is located in the El Morgene tourist area, on the Tabarka Tourist Road. Its coordinates are (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+The lti Thalassa Sousse is a train station located in Sousse, Tunisia. It is situated at the coordinates (35.8605033, 10.6135856) and offers train services to various destinations.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3435,14 +4475,54 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a luxurious stay, check out Djerba Plaza Thalasso &amp; Spa located at Zone Touristique, Djerba Midun. 
-This top-rated hotel is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 33.83034, 11.00694. For more details, call them at 75 731 230.</t>
+          <t>Djerba Plaza Thalasso &amp; Spa is a luxurious hotel located in the touristic zone of Djerba Midun, Tunisia. It offers a wide range of facilities including 8 restaurants and bars, 3 swimming pools, a spa, and sports facilities. The hotel has 2491 rooms and suites, all of which are elegantly decorated and equipped with modern amenities. Djerba Plaza Thalasso &amp; Spa is a popular destination for tourists from all over the world, and it has received rave reviews for its excellent service, beautiful surroundings, and luxurious accommodations.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where can you find a luxurious hotel stay in Djerba, Tunisia, with a high rating and convenient location?</t>
+          <t>Day Plan:
+Morning: Explore the local market, exploring the vibrant stalls and picking up unique souvenirs.
+Mid-Morning: Visit the Dar Thala hotel, enjoying a leisurely brunch in their elegant dining room.
+Midday: Explore Thala's history and culture at the local museum, discovering the town's rich heritage.
+Afternoon: Try the local cuisine at Restaurant miam, savoring the authentic flavors of Thala's culinary delights.
+Evening: Head to Ulysse Djerba Thalasso &amp; Spa, indulging in a rejuvenating spa treatment and unwinding in the luxurious ambiance.
+Night: Experience the lively nightlife at Cafe el Homri, enjoying live music and mingling with the locals.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+Cafe el Homri, located in Thala, coordinates (21.552119, 72.005783), is a highly-rated cafe that operates 24/7. It offers a cozy and welcoming ambiance, attracting patrons seeking a relaxing escape or a quick caffeine fix.
+Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.
+Nestled on the idyllic shores of Sidi Mehrez Beach, Ulysse Djerba Thalasso &amp; Spa is a luxurious 4.1-rated hotel. Boasting a prime location in Mezraya, it offers a range of indulgent amenities including fine dining options, a rejuvenating spa, tennis courts, and sparkling indoor and outdoor pools. With a host of rave reviews and ratings averaging 4.1, this upscale establishment promises an unforgettable stay.
+The LA CIGALE TABARKA HOTEL is a luxury 5-star hotel located in Tabarka. It features multiple restaurants, a jazz bar, a golf course and a spa. It is located in the El Morgene tourist area, on the Tabarka Tourist Road. Its coordinates are (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti Thalassa Sousse is a train station with a rating of 3.3 found in the city of Sousse, Tunisia. It's located at the following coordinates: (35.8605033, 10.6135856). This place offers a variety of amenities and services to its customers.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3552,15 +4632,65 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a luxurious hotel, check out Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel located at Hasdrubal Thalassa &amp; Spa, Zone Touristique Port El Kantaoui, Port El Kantaoui 4089. 
-This top-rated hotel is perfect for travelers looking for a relaxing stay and offers a range of amenities including a spa, two swimming pools, and a private beach. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.8403362, 10.9990215. For more details, visit their website 
-at http://kantaoui.hasdrubal-thalassa.com/ or call them at 73 348 944.</t>
+          <t>Hasdrubal Thalassa &amp; Spa Port El Kantaou is a chic hotel located on a beach front in Zone Touristique, Port El Kantaoui. It features contemporary rooms and suites equipped with balconies, a spa, two pools and is situated close to a golf course.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>In the luxurious Thalassa and Spa region of Thala, which hotel offers a relaxing retreat with amenities such as a spa, swimming pools, and a private beach?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the charming tea room Sweet Cafe, known for its delightful tea and cozy ambiance.
+**Mid-Morning:**
+- Visit Mourade Mlawi restaurant, renowned for its delectable cuisine and inviting atmosphere.
+- Take a guided tour of the historic landmarks in Thala, discovering the rich history and cultural heritage of the region.
+**Midday:**
+- Indulge in a refreshing dip at the pool of Dar Thala hotel, accompanied by scenic views and tranquil surroundings.
+- Enjoy a delicious lunch at the hotel's restaurant, savoring authentic local flavors.
+**Afternoon:**
+- Engage in outdoor activities like hiking or biking at a nearby park or outdoor location, immersing yourself in nature's beauty.
+- Shop for souvenirs and local crafts at the vibrant markets of Thala.
+**Evening:**
+- Head to Chicken house pizzeria for a delectable dinner, tantalizing your taste buds with authentic pizzas.
+- Experience cultural immersion by attending a traditional music performance or dance show.
+**Night:**
+- Relax and rejuvenate with a soothing spa treatment at the Djerba Plaza Thalasso &amp; Spa, pampering yourself with blissful experiences.
+- Enjoy a memorable evening at the 5-star LA CIGALE TABARKA HOTEL, savoring exquisite cuisine and admiring breathtaking views.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+qhw@ smyr is a cafe located in Thala, Gujarat, India. It offers a variety of coffee and tea drinks, as well as snacks and pastries. The cafe is open from 4:00 AM to midnight, and is closed on Sundays. qhw@ smyr is rated 4.5 stars on Google, and has received positive reviews for its friendly staff and delicious coffee. The cafe is located at coordinates 21.552119, 72.005783.
+Mourade Mlawi is a highly-rated restaurant in Thala known for its delectable cuisine. Located at the coordinates (21.552119, 72.005783), it offers a warm and inviting ambiance for diners. With a 5.0 rating based on two reviews, it has garnered a strong reputation among locals and visitors alike.
+Djerba Plaza Thalasso &amp; Spa is a 4-star hotel located in Djerba Midun, Tunisia (33.83034, 11.00694). It features 2424 rooms and offers 8 restaurants and bars, 3 swimming pools, a spa, and sport facilities, making it a perfect spot to enjoy the sun and the sea while pampering yourself with a relaxing stay.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end hotel complex with multiple restaurants, a jazz bar, a golf course, and a spa. It is located in a prime touristic Zone with coordinates (36.95742, 8.75096). The 5-star complex features breathtaking views, halal-friendly amenities, and a luxurious ambiance that has received high praise from its guests.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti Thalassa Sousse is a train station with a rating of 3.3 found in the city of Sousse, Tunisia. It's located at the following coordinates: (35.8605033, 10.6135856). This place offers a variety of amenities and services to its customers.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3670,14 +4800,54 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a top-rated Hotel, check out Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel located at Hasdrubal Thalassa &amp; Spa, Zone Touristique Port El Kantaoui, Port El Kantaoui 4089. 
-This popular destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.8403362, 10.9990215. For more details, visit their website at http://kantaoui.hasdrubal-thalassa.com/ or call them at 73 348 944.</t>
+          <t>The Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel is a chic hotel located in thala that offers contemporary rooms and suites with balconies, a spa, and two swimming pools. With a 4.4 rating based on 265 reviews, the hotel is known for its comfortable and calming atmosphere, friendly staff, and proximity to the beach. Guests also appreciate the hotel's thalasso treatments, golf course, and beautiful gardens.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where in Port El Kantaoui can you find a highly rated hotel with a 4.4 rating, located at Zone Touristique Port El Kantaoui?</t>
+          <t>Day Plan:
+Morning: Exploring Sweet Cafe - Relish the delightful tea offerings and ambiance of this popular tea salon.
+Mid-Morning: Visit Mourade Mlawi - Tantalize your taste buds with authentic local cuisine at this highly-rated restaurant.
+Midday: Relax at Dar Thala - Indulge in the tranquility of this charming hotel's swimming pool, garden, and restaurant.
+Afternoon: Enjoy scenic views at TOTAL Thala (1 station) - Take a break at this renowned gas station with a 5-star rating, offering panoramic views of the city.
+Evening: Experience cultural immersion at a local market or mall - Immerse yourself in the vibrant local culture and engage in some shopping.
+Night: Stay at Chicken house - Savor delicious pizza and enjoy the lively atmosphere of this pizzeria.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+The Grind House is a cafe located in thala at the coordinates (44.801795, -68.771204) and has a rating of 5.0 based on 2 reviews. It offers (services, activities) and is open during the following days and hours: (workday_timing). You can contact them by phone at 96 052 367.
+Mourade Mlawi is a highly-rated restaurant in Thala known for its delectable cuisine. Located at the coordinates (21.552119, 72.005783), it offers a warm and inviting ambiance for diners. With a 5.0 rating based on two reviews, it has garnered a strong reputation among locals and visitors alike.
+Djerba Plaza Thalasso &amp; Spa is a 4-star hotel located in Djerba Midun, Tunisia (33.83034, 11.00694). It features 2424 rooms and offers 8 restaurants and bars, 3 swimming pools, a spa, and sport facilities, making it a perfect spot to enjoy the sun and the sea while pampering yourself with a relaxing stay.
+The LA CIGALE TABARKA HOTEL is a luxury 5-star hotel located in Tabarka. It features multiple restaurants, a jazz bar, a golf course and a spa. It is located in the El Morgene tourist area, on the Tabarka Tourist Road. Its coordinates are (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+The lti Thalassa Sousse is a train station located in Sousse, Tunisia. It is situated at the coordinates (35.8605033, 10.6135856) and offers train services to various destinations.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3787,12 +4957,54 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a top-rated complex hotel, check out LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF at LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF, Zone touristique El Morgene, 1 Tabarka Touristic Road, Tabarka 8110. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.95742, 8.75096. For more details, visit their website at http://www.lacigaletabarka.com/ or call them at 70 019 000.</t>
+          <t>LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end hotel complex with multiple restaurants, a jazz bar, a golf course, and a spa. It is located in a prime touristic Zone with coordinates (36.95742, 8.75096). The 5-star complex features breathtaking views, halal-friendly amenities, and a luxurious ambiance that has received high praise from its guests.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated complex hotel in Thala that offers an exceptional thalassotherapy and golf experience?</t>
+          <t>Day Plan:
+Morning: Explore Sweet Cafe, indulge in aromatic tea, and savor its top-rated ambiance.
+Mid-Morning: Visit Cafe Elhaj Mnawer for a cozy breakfast, soaking in the local flavors and hospitality.
+Midday: Relish the authentic Tunisian cuisine at Restaurant Faouzi Merguez &amp; Lablebi, experiencing traditional culinary delights.
+Afternoon: Escape from the midday heat to the chic Hasdrubal Thalassa &amp; Spa Port El Kantaou, rejuvenating with luxurious spa treatments or enjoying a refreshing dip in its pristine pools.
+Evening: Embark on a scenic drive towards LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF, immersing yourself in its luxurious atmosphere and indulging in a delectable dinner at its jazz bar.
+Night: Return to Dar Thala, unwind by the tranquil pool, and let the serene ambiance soothe your soul before retiring for the night in your cozy accommodations.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+mqh~ lHj mnwr Cafe Elhaj Mnawer is a popular cafe located in Thala, Tunisia, offering a cozy and welcoming atmosphere for locals and tourists alike. Situated at coordinates (35.5857757, 8.6046366), it is easily accessible and conveniently located. The cafe serves up delicious food and beverages, catering to a wide range of tastes and preferences. Its 24-hour营业模式 makes it a great spot to relax and enjoy a cup of coffee or tea any time of the day or night.
+Restaurant Faouzi Merguez &amp; Lablebi is located in Thala, Tunisia, at coordinates (34.0586402, -5.0208467). The restaurant offers a variety of dishes, including merguez, lablebi, and other traditional Tunisian cuisine. It is open from 05:00-16:00 and has a rating of 4.0 on Google Maps.
+Hasdrubal Thalassa &amp; Spa Port El Kantaou is a chic hotel located on a beach front in Zone Touristique, Port El Kantaoui. It features contemporary rooms and suites equipped with balconies, a spa, two pools and is situated close to a golf course.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end balneotherapy complex located in Tabarka, Tunisia. It has multiple restaurants including a jazz bar, a golf course, and a spa. It is located at the following coordinates: (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti Thalassa Sousse is a train station with a rating of 3.3 found in the city of Sousse, Tunisia. It's located at the following coordinates: (35.8605033, 10.6135856). This place offers a variety of amenities and services to its customers.
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3902,14 +5114,60 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF located at LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF, Zone touristique El Morgene, 1 Tabarka Touristic Road, Tabarka 8110.
-This top-rated destination is perfect for Complexe hotelier lovers and offers a range of categories to choose from.
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.95742, 8.75096. For more details, visit their website at http://www.lacigaletabarka.com/ or call them at 70 019 000.</t>
+          <t>LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end balneotherapy complex located in Tabarka, Tunisia. It has multiple restaurants including a jazz bar, a golf course, and a spa. It is located at the following coordinates: (36.95742, 8.75096).</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where in Tabarka can you find a top-rated Complexe hotelier with a 4.5 rating and a wide range of categories, perfect for those seeking exceptional experiences?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore the quaint streets of Thala, admiring the traditional architecture and local crafts.
+**Mid-Morning:**
+* Visit the highly-rated La Nouvelle Café for a cup of aromatic coffee and savor the cozy ambiance.
+**Midday:**
+* Indulge in a delectable dining experience at Restaurant miam's food, known for its warm ambiance and flavorful Gujarati cuisine.
+**Afternoon:**
+* Immerse yourself in local culture at Dar Thala, a highly-rated hotel with a serene atmosphere and friendly staff.
+**Evening:**
+* Head to Sweet Cafe for a relaxing evening tea, enjoying its 24/7 service and positive reviews.
+**Night:**
+* Experience the lively atmosphere of Chicken house, a popular pizzeria with a 5.0 rating and a convenient location in Thala.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+La Nouvelle Café, a highly-rated cafe situated in Thala at the coordinates (21.552119, 72.005783), offers a cozy ambiance and delicious coffee beverages. With its prime location, it serves as a convenient destination for locals and tourists alike to unwind and savor aromatic coffee creations.
+Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.
+The Royal Kenz Hotel Thalasso &amp; Spa is a luxurious hotel located in Hammam Sousse, Tunisia. It offers spacious rooms and suites with a blend of traditional and modern décor. Guests can enjoy three swimming pools, including an indoor pool, a spa, and a mini-golf course. The hotel is situated near the beach and offers stunning views of the Mediterranean Sea. With a rating of 4.2 out of 5, it is a popular destination for both leisure and business travelers
+The LA CIGALE TABARKA HOTEL is a luxury 5-star hotel located in Tabarka. It features multiple restaurants, a jazz bar, a golf course and a spa. It is located in the El Morgene tourist area, on the Tabarka Tourist Road. Its coordinates are (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+The lti Thalassa Sousse is a train station located in Thala, Tunisia. It is situated at the coordinates (35.8605033, 10.6135856). The station has a rating of 3.3 out of 5 based on 12 reviews.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4019,15 +5277,54 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a luxurious hotel, check out Odyssee Resort Thalasso &amp; Spa Zarzis located at Odyssee Resort Thalasso and Spa, Zarzis. 
-This top-rated destination is perfect for hotel lovers and offers a range of accommodations to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 33.85861, 10.98289. 
-For more details, visit their website at http://www.odyssee-resort.com/ or call them at 75 705 705.</t>
+          <t>Odyssee Resort Thalasso &amp; Spa Zarzis is located in Zarzis, Tunisia. It is a popular resort that offers a variety of amenities and activities, including 5 restaurants, swimming pools, a private beach, and tennis courts. The resort is committed to exceptional service and comfort for all of its guests. Its main category is Hotel.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where is that top-rated destination for hotel lovers in Thala, offering luxurious accommodations and a 4.2 rating, accessible by GPS coordinates and with a website and phone number for inquiries?</t>
+          <t>Day Plan:
+Morning: Visit the Sweet Cafe for a cup of tea and indulge in the tranquil ambiance.
+Mid-Morning: Explore the historical and cultural heritage of Thala at the Dar Thala, renowned for its serene atmosphere and rich history.
+Midday: Savor the authentic flavors of Tunisian cuisine at Restaurant Faouzi Merguez &amp; Lablebi, where you can relish traditional delicacies.
+Afternoon: Escape to the breathtaking Hasdrubal Thalassa &amp; Spa Port El Kantaou, where you can rejuvenate with spa treatments and bask in the coastal beauty.
+Evening: Experience the vibrant nightlife at LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF, enjoying live entertainment and delectable dining options.
+Night: Return to Sweet Cafe for a nightcap under the stars, reminiscing about the day's adventures and soaking in the charming atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+mqh~ lHj mnwr Cafe Elhaj Mnawer is a Cafe located in Thala, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. It has a rating of 5 stars on Google Reviews and is known for its friendly staff and delicious food. The cafe is located at HMG9+4R7 mqh~ lHj mnwr Cafe Elhaj Mnawer, P17, Thala 1210, Tunisia. Its coordinates are (35.5857757, 8.6046366).
+Restaurant Faouzi Merguez &amp; Lablebi is a restaurant located in thala, Tunisia. It offers a range of dishes, including merguez and lablebi. The restaurant is open from 05:00 to 16:00 and is located at HMCC+6GG P17. The restaurant has a rating of 4.0 and has received 8 reviews.
+Hasdrubal Thalassa &amp; Spa Port El Kantaou is a chic hotel located on a beach front in Zone Touristique, Port El Kantaoui. It features contemporary rooms and suites equipped with balconies, a spa, two pools and is situated close to a golf course.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end balneotherapy complex located in Tabarka, Tunisia. It has multiple restaurants including a jazz bar, a golf course, and a spa. It is located at the following coordinates: (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+**lti Thalassa Sousse** is a train station located at Av. 14 Janvier, Sousse, Tunisia. It has a rating of 3.3 out of 5 based on 12 reviews. The coordinates of the station are (35.8605033, 10.6135856). The phone number is 73 275 355 and it is owned by lti Thalassa Sousse (proprietaire).
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4137,12 +5434,54 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out Thalassa Sousse located at VJ67+QRV Thalassa Sousse, Av. 14 Janvier, Hammam Susah. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: (35.8609, 10.60313). For more details, visit their website at http://www.thalassa-hotels.com/ or call them at 73 275 355.</t>
+          <t>Thalassa Sousse is a 3 stars hotel located in thala, it features a water park, a private beach, and restaurants. Its coordinates are (35.8609, 10.60313). The hotel received 60 reviews with a rating of 3.0.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination with a range of Hotel categories in Thalassa Sousse, offering a special experience for Hotel enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the charming streets of Thala.
+Mid-Morning: Try local cuisine at Restaurant miam's food, known for its delectable dining experience.
+Midday: Visit the historic Dar Thala, offering a peaceful and relaxing getaway.
+Afternoon: Enjoy scenic views at the beach.
+Evening: Relax with a rejuvenating experience at the LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF.
+Night: Participate in a cultural immersion at a local museum to delve into the region's rich heritage.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+qhw@ smyr is a cafe located in Thala, Gujarat, India. It offers a variety of coffee and tea drinks, as well as snacks and pastries. The cafe is open from 4:00 AM to midnight, and is closed on Sundays. qhw@ smyr is rated 4.5 stars on Google, and has received positive reviews for its friendly staff and delicious coffee. The cafe is located at coordinates 21.552119, 72.005783.
+Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.
+The Royal Kenz Hotel Thalasso &amp; Spa is a 4.2-rated hotel located in thala and offers comfortable rooms and suites in a high-end complex with 3 swimming pools (1 indoor), a spa and mini-golf.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end balneotherapy complex located in Tabarka, Tunisia. It has multiple restaurants including a jazz bar, a golf course, and a spa. It is located at the following coordinates: (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti Thalassa Sousse is a train station with a rating of 3.3 found in the city of Sousse, Tunisia. It's located at the following coordinates: (35.8605033, 10.6135856). This place offers a variety of amenities and services to its customers.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4244,13 +5583,56 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out dar thala located at HM9C+JWJ dar thala, Thala. 
-This top-rated destination is perfect for mtHf lovers and offers a range of mtHf to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.57244, 8.67031. 
-For more details, visit their website at https://www.google.com/maps/place/dar+thala/@35.5690994,8.6722778,17z/data=!3m1!4b1!4m6!3m5!1s0x12f96345cf08c621:0xa84141fb0798907a!8m2!3d35.5690994!4d8.6722778!16s%2Fg%2F11h2k2nqhs?authuser=0&amp;entry=ttu or call them at 54 256 959.</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr"/>
+          <t>Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Exploring Sweet Cafe
+Mid-Morning: Trying local cuisine at Restaurant miam's food
+Midday: Visiting Djerba Plaza Thalasso &amp; Spa
+Afternoon: Enjoying scenic views at Chicken house
+Evening: Relaxing with a swim at Dar Thala
+Night: Participating in an event or activity at TOTAL Thala (1 station)</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+Queen "cafe-resto" is a 5-star rated cafe located in Thala. It offers a cozy atmosphere and a wide selection of coffee and tea beverages. The cafe is open from 8 AM to midnight, making it a great place to relax and enjoy a cup of coffee or tea. It is conveniently located at the coordinates (21.552119, 72.005783).
+Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.
+Djerba Plaza Thalasso &amp; Spa is a luxurious hotel located in the touristic zone of Djerba Midun, Tunisia. It offers a wide range of facilities including 8 restaurants and bars, 3 swimming pools, a spa, and sports facilities. The hotel has 2491 rooms and suites, all of which are elegantly decorated and equipped with modern amenities. Djerba Plaza Thalasso &amp; Spa is a popular destination for tourists from all over the world, and it has received rave reviews for its excellent service, beautiful surroundings, and luxurious accommodations.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a luxury 5-star resort located in Tabarka, Tunisia. It features stunning views, a private beach, and a wide range of amenities.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti El Ksar Resort &amp; Thalasso is a 4.3-rated resort located in Sousse, Tunisia. It offers Thalasso treatments and features 14 reviews from guests. It is easily accessible via its central location and has a variety of amenities, including a restaurant, bar, and garden. The resort is situated near the beach, making it a great choice for a relaxing getaway.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4350,14 +5732,54 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out Restaurant Faouzi Merguez &amp; Lablebi located at HMCC+6GG Restaurant Faouzi Merguez &amp; Lablebi, P17, Thala. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-16:00. To get there, use these GPS coordinates: 34.0586402, -5.0208467.</t>
+          <t>Restaurant Faouzi Merguez &amp; Lablebi is a restaurant located in thala, Tunisia. It offers a range of dishes, including merguez and lablebi. The restaurant is open from 05:00 to 16:00 and is located at HMCC+6GG P17. The restaurant has a rating of 4.0 and has received 8 reviews.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>What is the highly-rated restaurant in Thala that offers an excellent selection of traditional dishes and has earned a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Exploring the charming streets of Thala
+Mid-Morning: Trying local cuisine at Restaurant miam's food
+Midday: Visiting the Royal Kenz Hotel Thalasso &amp; Spa for a luxurious afternoon
+Afternoon: Exploring the historical and cultural heritage of Queen "cafe-resto"
+Evening: Relaxing with a rejuvenating spa treatment at LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF
+Night: Enjoying scenic views at Dar Thala</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+Queen "cafe-resto" is a cafe located in Thala, India. It offers a wide range of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe has a cozy atmosphere and is a great place to relax and enjoy a bite to eat. It is located at (21.552119, 72.005783).
+Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.
+The Royal Kenz Hotel Thalasso &amp; Spa is a 4.2-rated hotel located in thala and offers comfortable rooms and suites in a high-end complex with 3 swimming pools (1 indoor), a spa and mini-golf.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end hotel complex with multiple restaurants, a jazz bar, a golf course, and a spa. It is located in a prime touristic Zone with coordinates (36.95742, 8.75096). The 5-star complex features breathtaking views, halal-friendly amenities, and a luxurious ambiance that has received high praise from its guests.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+Lti El Ksar Resort &amp; Thalasso is a hotel located in Sousse, Tunisia. It has 14 reviews and is rated 4.3. The hotel offers thalasso therapy and is located near the beach. It is also close to several restaurants and shops.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4463,12 +5885,53 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a popular place to visit, check out mqh~ lHj mnwr Cafe Elhaj Mnawer. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.5857757, 8.6046366.</t>
+          <t>Cafe Elhaj Mnawer, known for its 5-star rating, is situated in Thala, Tunisia. Operating 24 hours a day, this cafe specializes in offering a comfortable atmosphere for its customers. With an address of HMG9+4R7 and coordinates of (35.5857757, 8.6046366), Cafe Elhaj Mnawer is easily accessible.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>In the area of Thala, which highly-rated destination is a popular spot known for its diverse selection of Cafe options?</t>
+          <t>Day Plan:
+Morning: Exploring La nouvelle café
+Mid-Morning: Trying local cuisine at Restaurant Faouzi Merguez &amp; Lablebi
+Midday: Visiting Djerba Plaza Thalasso &amp; Spa
+Afternoon: Relaxing with a spa treatment at Dar Thala
+Evening: Enjoying a luxurious dinner at The LA CIGALE TABARKA HOTEL</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+La nouvelle café is a highly rated café located in Thala, Gujarat, India. It offers a cozy and inviting atmosphere, perfect for enjoying a cup of coffee, tea, or a light meal. With its convenient location and ample parking, La nouvelle café is easily accessible and a great place to relax and socialize.
+Restaurant Faouzi Merguez &amp; Lablebi is located in Thala, Tunisia, at coordinates (34.0586402, -5.0208467). The restaurant offers a variety of dishes, including merguez, lablebi, and other traditional Tunisian cuisine. It is open from 05:00-16:00 and has a rating of 4.0 on Google Maps.
+Djerba Plaza Thalasso &amp; Spa is a luxurious hotel located in the touristic zone of Djerba Midun, Tunisia. It offers a wide range of facilities including 8 restaurants and bars, 3 swimming pools, a spa, and sports facilities. The hotel has 2491 rooms and suites, all of which are elegantly decorated and equipped with modern amenities. Djerba Plaza Thalasso &amp; Spa is a popular destination for tourists from all over the world, and it has received rave reviews for its excellent service, beautiful surroundings, and luxurious accommodations.
+The LA CIGALE TABARKA HOTEL is a luxury 5-star hotel located in Tabarka. It features multiple restaurants, a jazz bar, a golf course and a spa. It is located in the El Morgene tourist area, on the Tabarka Tourist Road. Its coordinates are (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti Thalassa Sousse is a train station with a rating of 3.3 found in the city of Sousse, Tunisia. It's located at the following coordinates: (35.8605033, 10.6135856). This place offers a variety of amenities and services to its customers.
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4570,15 +6033,54 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in Thala and looking for a delicious pizza experience, visit Chicken house located at HMC9+HX Chicken house, Thala. 
-This top-rated Pizzeria offers a range of pizzas to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 38.91539, -77.020328. 
-For more details, call them at 20 645 327.</t>
+          <t>Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated pizzeria with a wide selection of pizzas in Thala?</t>
+          <t>Day Plan:
+Morning: Explore the scenic beauty of Thala, Tunisia, by taking a guided tour of the local landmarks, including Dar Thala, a highly-rated hotel with a peaceful ambiance and beautiful surroundings.
+Mid-Morning: Indulge in the local cuisine by trying the delicious dishes at Restaurant miam's food, which offers a variety of culinary delights and has exceptional ratings from previous diners.
+Midday: Visit the Queen "cafe-resto" for a cozy and delightful lunch experience. This charming cafe offers a wide range of food and beverages in a pleasant atmosphere, making it an ideal spot to relax and savor the flavors of Thala.
+Afternoon: Enjoy a relaxing and rejuvenating afternoon at one of the local spas or hotels, such as LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF, which offers a range of spa treatments and amenities for guests to indulge in.
+Evening: Take a leisurely stroll through the local market or mall for a unique shopping experience. Discover local crafts, souvenirs, and traditional products that truly represent the culture and heritage of Thala.
+Night: Immerse yourself in the vibrant nightlife of Thala by participating in a captivating event or activity at one of the local venues. Experience the local music, dance, and cultural performances that showcase the rich traditions of the region.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+Queen "cafe-resto" is a cafe located in Thala, India. It offers a wide range of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe has a cozy atmosphere and is a great place to relax and enjoy a bite to eat. It is located at (21.552119, 72.005783).
+Restaurant miam's food is a highly rated (5.0/5 from 2 reviews) restaurant located in Thala, Gujarat, India. Its exact location is 21.552119, 72.005783. The restaurant offers a variety of dishes, but its specific offerings are not available in the provided information.
+The Royal Karthago Resort &amp; Thalasso is a four-star hotel with a rating of 4.1 on Google. It is located in Midoun, Aghir 4116, Tunisia, on the latitude - nan and longitude - nan. The hotel offers a range of amenities including a restaurant, spa, pool, and fitness center. The rooms are described as "unpretentious" and the hotel has a "convivial" atmosphere. Popular nearby attractions include B.P. 125 and the Aghir mountain.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end balneotherapy complex located in Tabarka, Tunisia. It has multiple restaurants including a jazz bar, a golf course, and a spa. It is located at the following coordinates: (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+Lti El Ksar Resort &amp; Thalasso is a hotel located in Sousse, Tunisia. It has 14 reviews and is rated 4.3. The hotel offers thalasso therapy and is located near the beach. It is also close to several restaurants and shops.
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4676,12 +6178,55 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in Thala and looking for a top-rated dining experience, Restaurant miam's food is the perfect spot for you. Located at HM9C+PC9 Restaurant miam's food, P17, Thala, this restaurant offers a delightful culinary experience with a rating of 5.0. To get in touch, simply call 99 676 429. For more details, visit their website at https://www.google.com/maps/place/Restaurant+miam%27s+food/data=!4m7!3m6!1s0x12f963e83164b151:0xfb72231a8d4d52d9!8m2!3d35.5692753!4d8.6711207!16s%2Fg%2F11h63hl9db!19sChIJUbFkMehj-RIR2VJNjRojcvs?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Restaurant miam's food is a highly rated (5.0/5 from 2 reviews) restaurant located in Thala, Gujarat, India. Its exact location is 21.552119, 72.005783. The restaurant offers a variety of dishes, but its specific offerings are not available in the provided information.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated dining experience with a rating of 5.0 located in Thala?</t>
+          <t>Day Plan:
+Morning: Explore the quaint streets of Thala, taking in the local sights and sounds.
+Mid-Morning: Savor a traditional Tunisian breakfast at Restaurant Faouzi Merguez &amp; Lablebi, indulging in the authentic flavors of the region.
+Midday: Visit the historic landmarks of Thala, including the ancient ruins and the medina, uncovering the rich cultural heritage of this charming town.
+Afternoon: Relax and rejuvenate at TOTAL Thala (1 station), indulging in a refreshing gasoline and service experience that will prepare you for the rest of your day.
+Evening: Embark on a culinary adventure at Sweet Cafe, treating your taste buds to a delightful selection of teas and pastries, while soaking in the convivial ambiance.
+Night: Experience the vibrant nightlife of Thala by venturing into Cafe el Homri, where you can enjoy live music, sip on local beverages, and mingle with the friendly locals.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+Cafe el Homri, located in Thala, coordinates (21.552119, 72.005783), is a highly-rated cafe that operates 24/7. It offers a cozy and welcoming ambiance, attracting patrons seeking a relaxing escape or a quick caffeine fix.
+Restaurant Faouzi Merguez &amp; Lablebi is located in Thala, Tunisia, at coordinates (34.0586402, -5.0208467). The restaurant offers a variety of dishes, including merguez, lablebi, and other traditional Tunisian cuisine. It is open from 05:00-16:00 and has a rating of 4.0 on Google Maps.
+Odyssee Resort Thalasso &amp; Spa Zarzis is located in Zarzis, Tunisia. It is a popular resort that offers a variety of amenities and activities, including 5 restaurants, swimming pools, a private beach, and tennis courts. The resort is committed to exceptional service and comfort for all of its guests. Its main category is Hotel.
+**Radisson Blu Palace Resort &amp; Thalasso, Djerba**
+Nestled on the pristine shores of Djerba, Radisson Blu Palace Resort &amp; Thalasso offers an elegant retreat with panoramic sea views. Its luxurious rooms and suites feature bright and airy interiors, while amenities include a private beach, a spa with thalassotherapy treatments, and a variety of dining options. Located on the island of Djerba, the resort boasts a convenient location just a short drive from Houmt Souk and within easy reach of numerous attractions and activities.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti El Ksar Resort &amp; Thalasso is a 4.3-rated resort located in Sousse, Tunisia. It offers Thalasso treatments and features 14 reviews from guests. It is easily accessible via its central location and has a variety of amenities, including a restaurant, bar, and garden. The resort is situated near the beach, making it a great choice for a relaxing getaway.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4775,14 +6320,55 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a Restaurant, check out Mourade Mlawi located at HMGC+82G Mourade Mlawi, Thala. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 21.552119, 72.005783. For more details, visit their website at https://www.google.com/maps/place/Mourade+Mlawi/data=!4m7!3m6!1s0x12f9632db2574b23:0x7003a1d7edf201bd!8m2!3d35.5758241!4d8.6700629!16s%2Fg%2F11g4f8g5t2!19sChIJI0tXsi1j-RIRvQHy7dehA3A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Mourade Mlawi is a highly-rated restaurant in Thala known for its delectable cuisine. Located at the coordinates (21.552119, 72.005783), it offers a warm and inviting ambiance for diners. With a 5.0 rating based on two reviews, it has garnered a strong reputation among locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with a 5.0 rating in Thala, known for its exceptional Restaurant options and convenient location?</t>
+          <t>Day Plan:
+Morning: Exploring Thala and enjoying local cuisine at Sweet Cafe
+Mid-Morning: Visit the historical Dar Thala for a peaceful and relaxing experience.
+Midday: Trying local cuisine at Restaurant miam's food
+Afternoon: Take a guided tour of the cultural site Djerba Plaza Thalasso &amp; Spa
+Evening: Experience cultural immersion at the lqhw@ lHmr Cafe
+Night: Relaxing with a spa treatment at Radisson Blu Palace Resort &amp; Thalasso</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+lqhw@ lHmr is a Cafe located in thala. It's a 4.6 rated place having 5 reviews with categories like Cafe. It is open during 05:00-23:00 hours.
+Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.
+Djerba Plaza Thalasso &amp; Spa is a luxurious hotel located in the touristic zone of Djerba Midun, Tunisia. It offers a wide range of facilities including 8 restaurants and bars, 3 swimming pools, a spa, and sports facilities. The hotel has 2491 rooms and suites, all of which are elegantly decorated and equipped with modern amenities. Djerba Plaza Thalasso &amp; Spa is a popular destination for tourists from all over the world, and it has received rave reviews for its excellent service, beautiful surroundings, and luxurious accommodations.
+**Radisson Blu Palace Resort &amp; Thalasso, Djerba**
+Nestled on the pristine shores of Djerba, Radisson Blu Palace Resort &amp; Thalasso offers an elegant retreat with panoramic sea views. Its luxurious rooms and suites feature bright and airy interiors, while amenities include a private beach, a spa with thalassotherapy treatments, and a variety of dining options. Located on the island of Djerba, the resort boasts a convenient location just a short drive from Houmt Souk and within easy reach of numerous attractions and activities.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti El Ksar Resort &amp; Thalasso is a resort located in Sousse, Tunisia. It is a popular destination for tourists seeking a relaxing and rejuvenating vacation. The resort offers a variety of amenities, including a thalasso spa, swimming pools, and restaurants. It is also conveniently located near the beach and other attractions.
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4884,12 +6470,55 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in thala, Cafe el Homri is a top-rated cafe located at HMQ9+3FW Cafe el Homri, Thala. With a rating of 5.0, it's a must-visit spot for cafe lovers. It's open 24 hours a day, but closed on []. To get there, use these GPS coordinates: 21.552119, 72.005783. For more details, visit their website at [link] or call them at [phone].</t>
+          <t>Cafe el Homri is a cafe located in Thala, Gujarat, India. It is open 24 hours a day and offers a variety of food and drinks. The cafe is rated 5.0 out of 5 stars on Google and has received 1 review.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated 24-hour cafe in Thala with exceptional ratings?</t>
+          <t>Day Plan:
+Morning: Exploring the cozy and welcoming Cafe Elhaj Mnawer, enjoying the delicious food and beverages.
+Mid-Morning: Shopping for souvenirs and local products at the Thala market.
+Midday: Trying local cuisine at the highly rated Restaurant miam's food.
+Afternoon: Relaxing with a spa treatment at the Djerba Plaza Thalasso &amp; Spa, enjoying the sun and sea views.
+Evening: Taking a guided tour of the Dar Thala hotel, appreciating its peaceful and serene atmosphere.
+Night: Experiencing cultural immersion at the lti Thalassa Sousse train station, learning about the local train services and transportation.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+mqh~ lHj mnwr Cafe Elhaj Mnawer is a popular cafe located in Thala, Tunisia, offering a cozy and welcoming atmosphere for locals and tourists alike. Situated at coordinates (35.5857757, 8.6046366), it is easily accessible and conveniently located. The cafe serves up delicious food and beverages, catering to a wide range of tastes and preferences. Its 24-hour营业模式 makes it a great spot to relax and enjoy a cup of coffee or tea any time of the day or night.
+Restaurant miam's food is a highly rated (5.0/5 from 2 reviews) restaurant located in Thala, Gujarat, India. Its exact location is 21.552119, 72.005783. The restaurant offers a variety of dishes, but its specific offerings are not available in the provided information.
+Djerba Plaza Thalasso &amp; Spa is a 4-star hotel located in Djerba Midun, Tunisia (33.83034, 11.00694). It features 2424 rooms and offers 8 restaurants and bars, 3 swimming pools, a spa, and sport facilities, making it a perfect spot to enjoy the sun and the sea while pampering yourself with a relaxing stay.
+**Radisson Blu Palace Resort &amp; Thalasso, Djerba**
+Nestled on the pristine shores of Djerba, Radisson Blu Palace Resort &amp; Thalasso offers an elegant retreat with panoramic sea views. Its luxurious rooms and suites feature bright and airy interiors, while amenities include a private beach, a spa with thalassotherapy treatments, and a variety of dining options. Located on the island of Djerba, the resort boasts a convenient location just a short drive from Houmt Souk and within easy reach of numerous attractions and activities.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+The lti Thalassa Sousse is a train station located in Sousse, Tunisia. It is situated at the coordinates (35.8605033, 10.6135856) and offers train services to various destinations.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4991,14 +6620,60 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out Queen "cafe-resto" located at HMV6+FPV Queen "cafe-resto". 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 21.552119, 72.005783. For more details, visit their website at https://www.google.com/maps/place/Queen+%22caf%C3%A9-resto%22/data=!4m7!3m6!1s0x12f9633ae5de1413:0x9e475119a82e0100!8m2!3d35.5937497!4d8.6617907!16s%2Fg%2F11smz8k1yr!19sChIJExTe5Tpj-RIRAAEuqBlRR54?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Queen "cafe-resto" is a cafe located in Thala, Gujarat, India. It is rated 5.0 out of 5 stars based on 1 review. The cafe offers a wide range of food and drinks, including coffee, tea, pastries, and sandwiches. It is open from 8:00 AM to 12:00 AM, 7 days a week.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Where in Thala can you find a highly-rated "cafe-resto" that offers a wide selection of Cafe and is a perfect destination for Cafe lovers?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historical and cultural significance of Dar Thala, a beautiful hotel with a 5-star rating.
+Mid-Morning:
+- Indulge in the local flavors at Sweet Cafe, a well-rated tea salon renowned for its 24/7 service and positive reviews.
+Midday:
+- Visit the Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel, a 4.4-star waterfront hotel with luxury amenities, stunning views, and a variety of recreational activities.
+Afternoon:
+- Enjoy the scenic beauty of LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF, a luxurious 5-star resort with a private beach and a wide range of amenities.
+Evening:
+- Experience the warm hospitality and delicious cuisine at Chicken house, a pizzeria with a 5-star rating and a cozy ambiance.
+Night:
+- Relax and rejuvenate with a revitalizing spa treatment at Dar Thala, known for its peaceful atmosphere and exceptional services.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+qhw@ lshTr is a highly-rated cafe located in Thala, Gujarat, India. The cafe is praised for its cozy ambiance and inviting atmosphere. This cafe offers a fine selection of beverages and light refreshments. It is a perfect spot to relax and have conversations. The staff is hospitable and always ready to assist. The cafe is open from 8:00 am to 8:00 pm, making it a convenient option for a morning coffee or an evening tea.
+Restaurant Faouzi Merguez &amp; Lablebi is a restaurant located in thala, Tunisia. It offers a range of dishes, including merguez and lablebi. The restaurant is open from 05:00 to 16:00 and is located at HMCC+6GG P17. The restaurant has a rating of 4.0 and has received 8 reviews.
+Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel is a 4.4 stars waterfront hotel in Port El Kantaoui, Tunisia. It offers luxury rooms and suites, all of which feature a balcony. The hotel has a spa, two swimming pools, and a restaurant. It's located in a touristic area with a golf and a beach nearby.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a luxury 5-star resort located in Tabarka, Tunisia. It features stunning views, a private beach, and a wide range of amenities.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti El Ksar Resort &amp; Thalasso is a 4.3-rated resort located in Sousse, Tunisia. It offers Thalasso treatments and features 14 reviews from guests. It is easily accessible via its central location and has a variety of amenities, including a restaurant, bar, and garden. The resort is situated near the beach, making it a great choice for a relaxing getaway.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5096,14 +6771,54 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out La nouvelle cafe located at HMC9+JV5 La nouvelle cafe, Thala. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 21.552119, 72.005783. For more details, visit their link at https://www.google.com/maps/place/La+nouvelle+caf%C3%A9/data=!4m7!3m6!1s0x12f9631fd2216117:0xe575e57381f6e3a7!8m2!3d35.5715048!4d8.669722!16s%2Fg%2F11sxx5sp9p!19sChIJF2Eh0h9j-RIRp-P2gXPldeU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Nouvelle Café, a highly-rated cafe situated in Thala at the coordinates (21.552119, 72.005783), offers a cozy ambiance and delicious coffee beverages. With its prime location, it serves as a convenient destination for locals and tourists alike to unwind and savor aromatic coffee creations.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a diverse selection of options in Thala?</t>
+          <t>Day Plan:
+Morning: Explore the bustling city of Thala and visit the famous TOTAL Thala (1 station), a renowned gas station offering exceptional services and a 5-star rating. 
+Mid-Morning: Take a guided tour of Dar Thala, a hotel located in Thala, Tunisia, which has a 5.0 rating and offers a peaceful and relaxing getaway with amenities like a swimming pool, garden, and restaurant.
+Midday: Try the local cuisine at Queen "cafe-resto," a local cafe located in Thala, Gujarat, with an average rating of 5.0 and positive reviews. Enjoy the delectable dining experience in a welcoming ambiance.
+Afternoon: Relax with a rejuvenating spa experience at The Hasdrubal Thalassa &amp; Spa Hotel in Port El Kantaoui, Tunisia, a luxurious hotel with a 4.4-star rating and a range of amenities, including a spa and two refreshing swimming pools.
+Evening: Take a leisurely stroll along the private beach at LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF, a luxury 5-star resort located in Tabarka, Tunisia, offering stunning views, a private beach, and a wide range of amenities.
+Night: Indulge in flavorful pizzas at Chicken house, a pizzeria located in Thala with a 5.0 rating based on 3 reviews. Enjoy the delicious pizzas and the lively atmosphere of this popular spot.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+Queen "cafe-resto" is a local cafe located in Thala, Gujarat. It has an average rating of 5.0 with 1 review. The cafe operates from 8:00 am to 12:00 am, every day of the week.
+Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.
+The Hasdrubal Thalassa &amp; Spa Hotel in Port El Kantaoui, Tunisia, provides an upscale beachfront experience. With 2154 contemporary rooms and suites featuring private balconies, the hotel offers a rejuvenating spa and two refreshing swimming pools for guests to indulge in. Conveniently located at Hasdrubal Thalassa &amp; Spa, Zone Touristique Port El Kantaoui, Port El Kantaoui 4089, the hotel boasts a 4.4-star rating and has received positive reviews from 265 satisfied guests.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a luxury 5-star resort located in Tabarka, Tunisia. It features stunning views, a private beach, and a wide range of amenities.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti El Ksar Resort &amp; Thalasso is a 4.3-rated resort located in Sousse, Tunisia. It offers Thalasso treatments and features 14 reviews from guests. It is easily accessible via its central location and has a variety of amenities, including a restaurant, bar, and garden. The resort is situated near the beach, making it a great choice for a relaxing getaway.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5209,15 +6924,60 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out lti El Ksar Resort &amp; Thalasso located at Sousse. 
-This top-rated destination is perfect for Gare lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 28.062422, 76.097031. 
-For more details, visit their website at http://www.lti.de/hotels/lti-el-ksar-resort-thalasso/ or call them at 73 240 460.</t>
+          <t>lti El Ksar Resort &amp; Thalasso is a 4.3-rated resort located in Sousse, Tunisia. It offers Thalasso treatments and features 14 reviews from guests. It is easily accessible via its central location and has a variety of amenities, including a restaurant, bar, and garden. The resort is situated near the beach, making it a great choice for a relaxing getaway.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated resort in Sousse, Tunisia, that caters specifically to golf enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+* **Exploring Thala:** Visit the bustling streets and markets, discovering the vibrant local culture.
+**Mid-Morning:**
+* **Trying local cuisine at Cafe Elhaj Mnawer:** Savor a traditional Tunisian breakfast while enjoying the cozy ambiance.
+**Midday:**
+* **Visiting Dar Thala:** Escape to this tranquil hotel, immersing yourself in its serene atmosphere and taking a refreshing dip in the pool.
+**Afternoon:**
+* **Enjoying scenic views at Djerba Plaza Thalasso &amp; Spa:** Admire the stunning coastline and indulge in a revitalizing spa treatment.
+**Evening:**
+* **Experiencing cultural immersion at LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF:** Immerse yourself in luxury while enjoying panoramic views and a memorable dining experience.
+**Night:**
+* **Relaxing with a guided tour of Chicken house:** Indulge in delicious pizzas and learn about the local cuisine.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+mqh~ lHj mnwr Cafe Elhaj Mnawer is a popular cafe located in Thala, Tunisia, offering a cozy and welcoming atmosphere for locals and tourists alike. Situated at coordinates (35.5857757, 8.6046366), it is easily accessible and conveniently located. The cafe serves up delicious food and beverages, catering to a wide range of tastes and preferences. Its 24-hour营业模式 makes it a great spot to relax and enjoy a cup of coffee or tea any time of the day or night.
+Restaurant Faouzi Merguez &amp; Lablebi is located in Thala, Tunisia, at coordinates (34.0586402, -5.0208467). The restaurant offers a variety of dishes, including merguez, lablebi, and other traditional Tunisian cuisine. It is open from 05:00-16:00 and has a rating of 4.0 on Google Maps.
+Djerba Plaza Thalasso &amp; Spa is a 4-star hotel located in Djerba Midun, Tunisia (33.83034, 11.00694). It features 2424 rooms and offers 8 restaurants and bars, 3 swimming pools, a spa, and sport facilities, making it a perfect spot to enjoy the sun and the sea while pampering yourself with a relaxing stay.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a luxury 5-star resort located in Tabarka, Tunisia. It features stunning views, a private beach, and a wide range of amenities.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+Lti El Ksar Resort &amp; Thalasso is a hotel located in Sousse, Tunisia. It has 14 reviews and is rated 4.3. The hotel offers thalasso therapy and is located near the beach. It is also close to several restaurants and shops.
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5319,14 +7079,60 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a Gare, check out lti Thalassa Sousse located at lti Thalassa Sousse, Av. 14 Janvier, Sousse. 
-This top-rated destination is perfect for Gare lovers and offers a range of categories to choose from. 
-With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.8605033, 10.6135856. For more details, visit their link at https://www.google.com/maps/place/lti+Thalassa+Sousse/data=!4m7!3m6!1s0x12fd8a0bde9a8e9b:0xa2425b1208ef42c4!8m2!3d35.8623964!4d10.6156616!16s%2Fg%2F11btwvstn2!19sChIJm46a3guK_RIRxELvCBJbQqI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 275 355.</t>
+          <t>lti Thalassa Sousse is a train station with a rating of 3.3 found in the city of Sousse, Tunisia. It's located at the following coordinates: (35.8605033, 10.6135856). This place offers a variety of amenities and services to its customers.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Gare destination in Thala, known for its range of categories and 3.3 rating?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the charming streets of Thala, immersing yourself in the local culture.
+**Mid-Morning:**
+* Savor a delectable breakfast at Sweet Cafe, known for its authentic Tunisian cuisine and high ratings.
+**Midday:**
+* Visit the ancient ruins of Dougga, a UNESCO World Heritage Site, to witness the grandeur of Roman architecture.
+**Afternoon:**
+* Engage in outdoor activities at the scenic Ain Doura National Park, enjoying hiking trails and picturesque landscapes.
+**Evening:**
+* Indulge in a traditional Tunisian dinner at Cafe Restaurant Le Safranier, known for its cozy ambiance and delicious local dishes.
+**Night:**
+* Relax with a soothing spa treatment at Dar Thala, a tranquil getaway with luxurious amenities and breathtaking views.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+mqh~ lHj mnwr Cafe Elhaj Mnawer is a popular cafe located in Thala, Tunisia, offering a cozy and welcoming atmosphere for locals and tourists alike. Situated at coordinates (35.5857757, 8.6046366), it is easily accessible and conveniently located. The cafe serves up delicious food and beverages, catering to a wide range of tastes and preferences. Its 24-hour营业模式 makes it a great spot to relax and enjoy a cup of coffee or tea any time of the day or night.
+Mourade Mlawi is a highly-rated restaurant in Thala known for its delectable cuisine. Located at the coordinates (21.552119, 72.005783), it offers a warm and inviting ambiance for diners. With a 5.0 rating based on two reviews, it has garnered a strong reputation among locals and visitors alike.
+Odyssee Resort Thalasso &amp; Spa Zarzis is located in Zarzis, Tunisia. It is a popular resort that offers a variety of amenities and activities, including 5 restaurants, swimming pools, a private beach, and tennis courts. The resort is committed to exceptional service and comfort for all of its guests. Its main category is Hotel.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end hotel complex with multiple restaurants, a jazz bar, a golf course, and a spa. It is located in a prime touristic Zone with coordinates (36.95742, 8.75096). The 5-star complex features breathtaking views, halal-friendly amenities, and a luxurious ambiance that has received high praise from its guests.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+The lti Thalassa Sousse is a train station located in Thala, Tunisia. It is situated at the coordinates (35.8605033, 10.6135856). The station has a rating of 3.3 out of 5 based on 12 reviews.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5428,13 +7234,54 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a reliable Gare option, check out lti Thalassa Sousse located at Av. 14 Janvier, Sousse. 
-With a rating of 3.3, lti Thalassa Sousse is a trusted destination for those seeking a great Gare experience. It's open during these hours:  but closed on . To get there, use these GPS coordinates: 35.8605033, 10.6135856. For more details, visit their website or call them at 73 275 355.</t>
+          <t>The lti Thalassa Sousse is a train station located in Sousse, Tunisia. It is situated at the coordinates (35.8605033, 10.6135856) and offers train services to various destinations.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Gare in Thala with specific GPS coordinates and a detailed description of its location and contact information?</t>
+          <t>Day Plan:
+Morning: Explore Sweet Cafe, known for its tea and cozy atmosphere.
+Mid-Morning: Visit Mourade Mlawi for a delightful breakfast and savor the local cuisine.
+Midday: Take a guided tour of LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF, a luxurious hotel complex with stunning views.
+Afternoon: Enjoy the serene ambiance of Dar Thala, a hotel with a swimming pool, garden, and restaurant.
+Evening: Experience the nightlife in Thala by visiting the jazz bar of LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF.
+Night: Relax and unwind with a spa treatment at LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+qhw@ lshTr is a highly-rated cafe located in Thala, Gujarat, India. The cafe is praised for its cozy ambiance and inviting atmosphere. This cafe offers a fine selection of beverages and light refreshments. It is a perfect spot to relax and have conversations. The staff is hospitable and always ready to assist. The cafe is open from 8:00 am to 8:00 pm, making it a convenient option for a morning coffee or an evening tea.
+Mourade Mlawi is a highly-rated restaurant in Thala known for its delectable cuisine. Located at the coordinates (21.552119, 72.005783), it offers a warm and inviting ambiance for diners. With a 5.0 rating based on two reviews, it has garnered a strong reputation among locals and visitors alike.
+The Royal Kenz Hotel Thalasso &amp; Spa is a 4.2-rated hotel located in thala and offers comfortable rooms and suites in a high-end complex with 3 swimming pools (1 indoor), a spa and mini-golf.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end hotel complex with multiple restaurants, a jazz bar, a golf course, and a spa. It is located in a prime touristic Zone with coordinates (36.95742, 8.75096). The 5-star complex features breathtaking views, halal-friendly amenities, and a luxurious ambiance that has received high praise from its guests.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti El Ksar Resort &amp; Thalasso is a 4.3-rated resort located in Sousse, Tunisia. It offers Thalasso treatments and features 14 reviews from guests. It is easily accessible via its central location and has a variety of amenities, including a restaurant, bar, and garden. The resort is situated near the beach, making it a great choice for a relaxing getaway.
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5540,12 +7387,61 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out lti El Ksar Resort &amp; Thalasso located at lti El Ksar Resort &amp; Thalasso, Sousse. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 28.062422, 76.097031. For more details, visit their website at http://www.lti.de/hotels/lti-el-ksar-resort-thalasso/ or call them at 73 240 460.</t>
+          <t>Lti El Ksar Resort &amp; Thalasso is a hotel located in Sousse, Tunisia. It has 14 reviews and is rated 4.3. The hotel offers thalasso therapy and is located near the beach. It is also close to several restaurants and shops.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where can you find lti El Ksar Resort &amp; Thalasso, a top-rated destination with a wide selection of Gare and a 4.3 rating, perfect for Gare enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the charming Tea Room, Sweet Cafe, known for its highly rated ambiance.
+**Mid-Morning:**
+- Discover the traditional dishes of Restaurant Faouzi Merguez &amp; Lablebi, a local favorite.
+**Midday:**
+- Visit the historic train station, lti Thalassa Sousse, for a glimpse into the city's transportation past.
+**Afternoon:**
+- Experience the comfort and hospitality of Dar Thala, a 5-star hotel with a serene atmosphere.
+**Evening:**
+- Enjoy a memorable dinner at Cafe Elhaj Mnawer, a 24-hour cafe with a relaxing atmosphere.
+**Night:**
+- Engage in a guided tour of the TOTAL Thala gas station, renowned for its excellent services.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+Cafe Elhaj Mnawer, known for its 5-star rating, is situated in Thala, Tunisia. Operating 24 hours a day, this cafe specializes in offering a comfortable atmosphere for its customers. With an address of HMG9+4R7 and coordinates of (35.5857757, 8.6046366), Cafe Elhaj Mnawer is easily accessible.
+Restaurant Faouzi Merguez &amp; Lablebi is located in Thala, Tunisia, at coordinates (34.0586402, -5.0208467). The restaurant offers a variety of dishes, including merguez, lablebi, and other traditional Tunisian cuisine. It is open from 05:00-16:00 and has a rating of 4.0 on Google Maps.
+The Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel is a chic hotel located in thala that offers contemporary rooms and suites with balconies, a spa, and two swimming pools. With a 4.4 rating based on 265 reviews, the hotel is known for its comfortable and calming atmosphere, friendly staff, and proximity to the beach. Guests also appreciate the hotel's thalasso treatments, golf course, and beautiful gardens.
+**Radisson Blu Palace Resort &amp; Thalasso, Djerba**
+Nestled on the pristine shores of Djerba, Radisson Blu Palace Resort &amp; Thalasso offers an elegant retreat with panoramic sea views. Its luxurious rooms and suites feature bright and airy interiors, while amenities include a private beach, a spa with thalassotherapy treatments, and a variety of dining options. Located on the island of Djerba, the resort boasts a convenient location just a short drive from Houmt Souk and within easy reach of numerous attractions and activities.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+The lti Thalassa Sousse is a train station located in Thala, Tunisia. It is situated at the coordinates (35.8605033, 10.6135856). The station has a rating of 3.3 out of 5 based on 12 reviews.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5647,10 +7543,56 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out lti Thalassa Sousse located at Av. 14 Janvier, Sousse. This top-rated destination is perfect for Gare lovers. With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.8605033, 10.6135856. For more details, visit their website or call them at 73 275 355.</t>
-        </is>
-      </c>
-      <c r="AA47" t="inlineStr"/>
+          <t>The lti Thalassa Sousse is a train station located in Thala, Tunisia. It is situated at the coordinates (35.8605033, 10.6135856). The station has a rating of 3.3 out of 5 based on 12 reviews.</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Explore Sweet Cafe for a refreshing tea experience while admiring the local atmosphere.
+Mid-Morning: Visit the scenic Djerba Plaza Thalasso &amp; Spa, immerse yourself in its luxurious amenities, and capture breathtaking views.
+Midday: Delight your palate with authentic Tunisian cuisine at Restaurant Faouzi Merguez &amp; Lablebi.
+Afternoon: Engage in outdoor activities at Chicken House, indulge in a delicious pizza, and engage in lively conversations with locals.
+Evening: Head to LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF for a memorable dining experience at one of its multiple restaurants, followed by a relaxing session at the spa.
+Night: Immerse yourself in the serene ambiance of Dar Thala, enjoy a peaceful evening by the pool, and unwind under the starlit sky.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+lqhw@ lHmr is a Cafe located in thala. It's a 4.6 rated place having 5 reviews with categories like Cafe. It is open during 05:00-23:00 hours.
+Restaurant Faouzi Merguez &amp; Lablebi is a restaurant located in thala, Tunisia. It offers a range of dishes, including merguez and lablebi. The restaurant is open from 05:00 to 16:00 and is located at HMCC+6GG P17. The restaurant has a rating of 4.0 and has received 8 reviews.
+Djerba Plaza Thalasso &amp; Spa is a luxurious hotel located in the touristic zone of Djerba Midun, Tunisia. It offers a wide range of facilities including 8 restaurants and bars, 3 swimming pools, a spa, and sports facilities. The hotel has 2491 rooms and suites, all of which are elegantly decorated and equipped with modern amenities. Djerba Plaza Thalasso &amp; Spa is a popular destination for tourists from all over the world, and it has received rave reviews for its excellent service, beautiful surroundings, and luxurious accommodations.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end hotel complex with multiple restaurants, a jazz bar, a golf course, and a spa. It is located in a prime touristic Zone with coordinates (36.95742, 8.75096). The 5-star complex features breathtaking views, halal-friendly amenities, and a luxurious ambiance that has received high praise from its guests.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+The lti Thalassa Sousse is a train station located in Sousse, Tunisia. It is situated at the coordinates (35.8605033, 10.6135856) and offers train services to various destinations.
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5754,12 +7696,54 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a Gare, consider lti El Ksar Resort &amp; Thalasso located at lti El Ksar Resort &amp; Thalasso, Sousse. This top-rated destination offers a range of Gare with a rating of 4.3. For more details, visit their website at http://www.lti.de/hotels/lti-el-ksar-resort-thalasso/ or call them at 73 240 460.</t>
+          <t>lti El Ksar Resort &amp; Thalasso is a resort located in Sousse, Tunisia. It is a popular destination for tourists seeking a relaxing and rejuvenating vacation. The resort offers a variety of amenities, including a thalasso spa, swimming pools, and restaurants. It is also conveniently located near the beach and other attractions.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated resort with Gare in Thala, as recommended by its top-rated status and 4.3 rating?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the charming streets and vibrant atmosphere of **Thala**.
+**Mid-Morning:** Visit **Queen "cafe-resto"** for a cup of coffee and a taste of local pastries.
+**Midday:** Indulge in a delicious lunch at **Mourade Mlawi**, savoring the authentic flavors of Tunisian cuisine.
+**Afternoon:** Relax and rejuvenate at **Dar Thala**, enjoying the tranquil atmosphere and picturesque surroundings.
+**Evening:** Take a stroll through the picturesque **Royal Kenz Hotel Thalasso &amp; Spa** complex, admiring the luxurious amenities and stunning architecture.
+**Night:** Experience the vibrant nightlife at **Chicken house**, enjoying a casual dinner and sharing stories with locals.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+Queen "cafe-resto" is a 5-star rated cafe located in Thala. It offers a cozy atmosphere and a wide selection of coffee and tea beverages. The cafe is open from 8 AM to midnight, making it a great place to relax and enjoy a cup of coffee or tea. It is conveniently located at the coordinates (21.552119, 72.005783).
+Mourade Mlawi is a highly-rated restaurant in Thala known for its delectable cuisine. Located at the coordinates (21.552119, 72.005783), it offers a warm and inviting ambiance for diners. With a 5.0 rating based on two reviews, it has garnered a strong reputation among locals and visitors alike.
+The Royal Kenz Hotel Thalasso &amp; Spa is a 4.2-rated hotel located in thala and offers comfortable rooms and suites in a high-end complex with 3 swimming pools (1 indoor), a spa and mini-golf.
+The LA CIGALE TABARKA HOTEL is a luxury 5-star hotel located in Tabarka. It features multiple restaurants, a jazz bar, a golf course and a spa. It is located in the El Morgene tourist area, on the Tabarka Tourist Road. Its coordinates are (36.95742, 8.75096).
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+**lti Thalassa Sousse** is a train station located at Av. 14 Janvier, Sousse, Tunisia. It has a rating of 3.3 out of 5 based on 12 reviews. The coordinates of the station are (35.8605033, 10.6135856). The phone number is 73 275 355 and it is owned by lti Thalassa Sousse (proprietaire).
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5861,12 +7845,54 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a train related destination, check out lti Thalassa Sousse located at Av. 14 Janvier, Sousse. This destination is perfect for Gare lovers. With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.8605033, 10.6135856. For more details, visit their website or call them at 73 275 355.</t>
+          <t>**lti Thalassa Sousse** is a train station located at Av. 14 Janvier, Sousse, Tunisia. It has a rating of 3.3 out of 5 based on 12 reviews. The coordinates of the station are (35.8605033, 10.6135856). The phone number is 73 275 355 and it is owned by lti Thalassa Sousse (proprietaire).</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where in Thala can you find a destination with a strong connection to trains, making it a prime spot for Gare enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Sweet Cafe and La nouvelle café for delicious coffee and tea in Thala.
+Mid-Morning: Visit Restaurant miam's food for a highly-rated local dining experience.
+Midday: Immerse yourself in the cultural heritage of Dar Thala, a hotel with rich historical significance.
+Afternoon: Unwind and pamper yourself with a relaxing experience at LA CIGALE TABARKA HOTEL's spa.
+Evening: Take a guided tour of Odysseus Resort Thalasso &amp; Spa Zarzis to witness its impressive amenities and stunning architecture.
+Night: Enjoy a delightful meal at Chicken house, known for its authentic pizzeria experience in Thala.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+La nouvelle café is a highly rated café located in Thala, Gujarat, India. It offers a cozy and inviting atmosphere, perfect for enjoying a cup of coffee, tea, or a light meal. With its convenient location and ample parking, La nouvelle café is easily accessible and a great place to relax and socialize.
+Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.
+Odyssee Resort Thalasso &amp; Spa Zarzis is located in Zarzis, Tunisia. It is a popular resort that offers a variety of amenities and activities, including 5 restaurants, swimming pools, a private beach, and tennis courts. The resort is committed to exceptional service and comfort for all of its guests. Its main category is Hotel.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end hotel complex with multiple restaurants, a jazz bar, a golf course, and a spa. It is located in a prime touristic Zone with coordinates (36.95742, 8.75096). The 5-star complex features breathtaking views, halal-friendly amenities, and a luxurious ambiance that has received high praise from its guests.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+The lti Thalassa Sousse is a train station located in Sousse, Tunisia. It is situated at the coordinates (35.8605033, 10.6135856) and offers train services to various destinations.
+Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5968,12 +7994,54 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a top-rated Station-service, check out Station service Agil THALA located at HMH9+7MW Station service Agil THALA, P17, Thala. With a rating of 4.4, this must-visit spot offers a range of services. To get there, use these GPS coordinates: 21.552119, 72.005783. For more details, call them at 77 480 453.</t>
+          <t>Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated (4.4) Station-service named Station service Agil THALA in Thala?</t>
+          <t>Day Plan:
+Morning: Explore the charming town of Thala with its narrow streets and traditional architecture.
+Mid-Morning: Visit Restaurant miam's food for a delightful dining experience, savoring the local cuisine in a welcoming ambiance.
+Midday: Relax at Dar Thala, a serene getaway with a swimming pool, a garden, and a restaurant.
+Afternoon: Take a guided tour of the Odyssey Resort Thalasso &amp; Spa Zarzis, admiring its luxurious amenities and stunning views.
+Evening: Enjoy a romantic dinner at LA CIGALE TABARKA HOTEL before strolling along the beach.
+Night: Experience the vibrant nightlife of Tabarka, exploring its bars and clubs.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.
+qhw@ smyr is a cafe located in Thala, Gujarat, India. It offers a variety of coffee and tea drinks, as well as snacks and pastries. The cafe is open from 4:00 AM to midnight, and is closed on Sundays. qhw@ smyr is rated 4.5 stars on Google, and has received positive reviews for its friendly staff and delicious coffee. The cafe is located at coordinates 21.552119, 72.005783.
+Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.
+Odyssee Resort Thalasso &amp; Spa Zarzis is located in Zarzis, Tunisia. It is a popular resort that offers a variety of amenities and activities, including 5 restaurants, swimming pools, a private beach, and tennis courts. The resort is committed to exceptional service and comfort for all of its guests. Its main category is Hotel.
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a luxury 5-star resort located in Tabarka, Tunisia. It features stunning views, a private beach, and a wide range of amenities.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti Thalassa Sousse is a train station with a rating of 3.3 found in the city of Sousse, Tunisia. It's located at the following coordinates: (35.8605033, 10.6135856). This place offers a variety of amenities and services to its customers.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6071,10 +8139,56 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a Station-service, check out TOTAL Thala (1 station) located at HMFC+54Q TOTAL Thala (1 station), P17, Thala 1210. This top-rated destination is perfect for Station-service lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.5857757, 8.6046366.</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr"/>
+          <t>Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Exploring Sweet Cafe and Queen "cafe-resto" in Thala
+Mid-Morning: Trying local cuisine at Restaurant miam's food
+Midday: Visiting Dar Thala for a peaceful getaway
+Afternoon: Enjoying scenic views at Chicken house pizzeria
+Evening: Participating in an event at LA CIGALE TABARKA HOTEL
+Night: Experiencing cultural immersion at TOTAL Thala (1 station)</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.
+Queen "cafe-resto" is a cafe located in Thala, India. It offers a wide range of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe has a cozy atmosphere and is a great place to relax and enjoy a bite to eat. It is located at (21.552119, 72.005783).
+Restaurant miam's food is a highly rated (5.0/5 from 2 reviews) restaurant located in Thala, Gujarat, India. Its exact location is 21.552119, 72.005783. The restaurant offers a variety of dishes, but its specific offerings are not available in the provided information.
+The Royal Kenz Hotel Thalasso &amp; Spa is a luxurious hotel located in Hammam Sousse, Tunisia. It offers spacious rooms and suites with a blend of traditional and modern décor. Guests can enjoy three swimming pools, including an indoor pool, a spa, and a mini-golf course. The hotel is situated near the beach and offers stunning views of the Mediterranean Sea. With a rating of 4.2 out of 5, it is a popular destination for both leisure and business travelers
+LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end hotel complex with multiple restaurants, a jazz bar, a golf course, and a spa. It is located in a prime touristic Zone with coordinates (36.95742, 8.75096). The 5-star complex features breathtaking views, halal-friendly amenities, and a luxurious ambiance that has received high praise from its guests.
+Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.
+Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.
+lti El Ksar Resort &amp; Thalasso is a 4.3-rated resort located in Sousse, Tunisia. It offers Thalasso treatments and features 14 reviews from guests. It is easily accessible via its central location and has a variety of amenities, including a restaurant, bar, and garden. The resort is situated near the beach, making it a great choice for a relaxing getaway.
+Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
